--- a/benchmarktests/testdefinitions/Benchmartktest_traject 36-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 36-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C79DCFF-4810-49CB-91F5-2B67839C8A36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E7E447-B16F-4B84-AD5F-BE100ED257D9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7665" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="134">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t>KW286</t>
+  </si>
+  <si>
+    <t>Trajectlengte</t>
   </si>
 </sst>
 </file>
@@ -1998,15 +2001,15 @@
       </c>
       <c r="E2" t="str">
         <f>IF(D2="GR","-",INDEX('Normen en duidingsklassen'!$D$4:$D$8,H2))</f>
-        <v>D</v>
+        <v>A+</v>
       </c>
       <c r="G2">
         <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>IFERROR(MATCH(G2,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -2019,15 +2022,15 @@
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,H3)</f>
-        <v>D</v>
+        <v>A+</v>
       </c>
       <c r="G3">
         <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>IFERROR(MATCH(G3,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2285,7 +2288,7 @@
   </sheetPr>
   <dimension ref="B1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:D68"/>
     </sheetView>
   </sheetViews>
@@ -5122,8 +5125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5178,10 +5181,16 @@
         <v>1.1111111111111112E-6</v>
       </c>
       <c r="F4" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="9">
+        <v>21.02</v>
+      </c>
       <c r="D5" s="65" t="s">
         <v>31</v>
       </c>
@@ -5225,7 +5234,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27">
         <f>E7</f>
@@ -5359,7 +5368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
   <dimension ref="B2:Y35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D33"/>
     </sheetView>
   </sheetViews>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 36-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 36-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDEC17B-1154-4EA1-85CA-98E23A0B48AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1089CB-08A0-4AB5-A35D-65059A24807A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="1695" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="8" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="134">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>+0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>-I</t>
@@ -480,7 +477,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -526,12 +523,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EDA97"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -797,10 +788,9 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1750,19 +1740,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="53" t="s">
+      <c r="E2" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="54" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1770,7 +1760,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>17</v>
@@ -1784,10 +1774,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>17</v>
@@ -1801,10 +1791,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>18</v>
@@ -1813,21 +1803,21 @@
         <v>17</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>18</v>
@@ -1835,16 +1825,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>18</v>
@@ -1852,10 +1842,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>18</v>
@@ -1869,16 +1859,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>18</v>
@@ -1886,16 +1876,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>18</v>
@@ -1903,10 +1893,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>18</v>
@@ -1920,11 +1910,11 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>98</v>
-      </c>
       <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
@@ -1932,7 +1922,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1996,7 +1986,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1">
         <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
@@ -2017,7 +2007,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(H7:H12)</f>
@@ -2038,7 +2028,7 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G5" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2050,18 +2040,18 @@
         <v>38</v>
       </c>
       <c r="E6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="H6" s="35" t="s">
         <v>76</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="29">
         <f>STPH!C5</f>
@@ -2083,7 +2073,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="31">
         <f>STBI!C5</f>
@@ -2105,7 +2095,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="31">
         <f>GEKB!C5</f>
@@ -2127,7 +2117,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C5</f>
@@ -2149,7 +2139,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C5</f>
@@ -2171,7 +2161,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="31">
         <f>HTKW!C5</f>
@@ -2308,29 +2298,29 @@
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="69" t="s">
-        <v>103</v>
+      <c r="D2" s="68" t="s">
+        <v>102</v>
       </c>
       <c r="E2" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="54" t="s">
         <v>71</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -2406,7 +2396,7 @@
       </c>
       <c r="J4" s="9" t="str">
         <f t="array" ref="J4">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="array" ref="K4">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
@@ -2474,7 +2464,7 @@
       </c>
       <c r="G6" s="9" t="str">
         <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H6" s="9" t="str">
         <f t="array" ref="H6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2514,7 +2504,7 @@
       </c>
       <c r="G7" s="9" t="str">
         <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H7" s="9" t="str">
         <f t="array" ref="H7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -2602,11 +2592,11 @@
       </c>
       <c r="I9" s="9" t="str">
         <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
@@ -2722,7 +2712,7 @@
       </c>
       <c r="I12" s="9" t="str">
         <f t="array" ref="I12">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="array" ref="J12">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
@@ -2866,7 +2856,7 @@
       </c>
       <c r="E16" s="9" t="str">
         <f t="array" ref="E16">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B16,C16),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="F16" s="9" t="str">
         <f t="array" ref="F16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -2906,7 +2896,7 @@
       </c>
       <c r="E17" s="9" t="str">
         <f t="array" ref="E17">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B17,C17),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F17" s="9" t="str">
         <f t="array" ref="F17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -2946,7 +2936,7 @@
       </c>
       <c r="E18" s="9" t="str">
         <f t="array" ref="E18">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B18,C18),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F18" s="9" t="str">
         <f t="array" ref="F18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -2962,11 +2952,11 @@
       </c>
       <c r="I18" s="9" t="str">
         <f t="array" ref="I18">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J18" s="9" t="str">
         <f t="array" ref="J18">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="K18" s="12" t="str">
         <f t="array" ref="K18">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
@@ -2986,7 +2976,7 @@
       </c>
       <c r="E19" s="9" t="str">
         <f t="array" ref="E19">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B19,C19),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F19" s="9" t="str">
         <f t="array" ref="F19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3026,7 +3016,7 @@
       </c>
       <c r="E20" s="9" t="str">
         <f t="array" ref="E20">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B20,C20),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F20" s="9" t="str">
         <f t="array" ref="F20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3034,7 +3024,7 @@
       </c>
       <c r="G20" s="9" t="str">
         <f t="array" ref="G20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H20" s="9" t="str">
         <f t="array" ref="H20">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B20,C20),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3066,7 +3056,7 @@
       </c>
       <c r="E21" s="9" t="str">
         <f t="array" ref="E21">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B21,C21),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F21" s="9" t="str">
         <f t="array" ref="F21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3074,7 +3064,7 @@
       </c>
       <c r="G21" s="9" t="str">
         <f t="array" ref="G21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H21" s="9" t="str">
         <f t="array" ref="H21">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B21,C21),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3082,11 +3072,11 @@
       </c>
       <c r="I21" s="9" t="str">
         <f t="array" ref="I21">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J21" s="9" t="str">
         <f t="array" ref="J21">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="K21" s="12" t="str">
         <f t="array" ref="K21">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
@@ -3106,7 +3096,7 @@
       </c>
       <c r="E22" s="9" t="str">
         <f t="array" ref="E22">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B22,C22),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="F22" s="9" t="str">
         <f t="array" ref="F22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3114,7 +3104,7 @@
       </c>
       <c r="G22" s="9" t="str">
         <f t="array" ref="G22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H22" s="9" t="str">
         <f t="array" ref="H22">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B22,C22),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3154,7 +3144,7 @@
       </c>
       <c r="G23" s="9" t="str">
         <f t="array" ref="G23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H23" s="9" t="str">
         <f t="array" ref="H23">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B23,C23),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3194,7 +3184,7 @@
       </c>
       <c r="G24" s="9" t="str">
         <f t="array" ref="G24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H24" s="9" t="str">
         <f t="array" ref="H24">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B24,C24),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3234,7 +3224,7 @@
       </c>
       <c r="G25" s="9" t="str">
         <f t="array" ref="G25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H25" s="9" t="str">
         <f t="array" ref="H25">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B25,C25),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3266,7 +3256,7 @@
       </c>
       <c r="E26" s="9" t="str">
         <f t="array" ref="E26">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B26,C26),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="F26" s="9" t="str">
         <f t="array" ref="F26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -3274,7 +3264,7 @@
       </c>
       <c r="G26" s="9" t="str">
         <f t="array" ref="G26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H26" s="9" t="str">
         <f t="array" ref="H26">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B26,C26),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3314,7 +3304,7 @@
       </c>
       <c r="G27" s="9" t="str">
         <f t="array" ref="G27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H27" s="9" t="str">
         <f t="array" ref="H27">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B27,C27),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3354,7 +3344,7 @@
       </c>
       <c r="G28" s="9" t="str">
         <f t="array" ref="G28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H28" s="9" t="str">
         <f t="array" ref="H28">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B28,C28),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3366,11 +3356,11 @@
       </c>
       <c r="J28" s="9" t="str">
         <f t="array" ref="J28">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K28" s="12" t="str">
         <f t="array" ref="K28">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
@@ -3394,7 +3384,7 @@
       </c>
       <c r="G29" s="9" t="str">
         <f t="array" ref="G29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H29" s="9" t="str">
         <f t="array" ref="H29">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B29,C29),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3522,7 +3512,7 @@
       </c>
       <c r="I32" s="9" t="str">
         <f t="array" ref="I32">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="J32" s="9" t="str">
         <f t="array" ref="J32">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
@@ -3602,15 +3592,15 @@
       </c>
       <c r="I34" s="9" t="str">
         <f t="array" ref="I34">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="J34" s="9" t="str">
         <f t="array" ref="J34">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="K34" s="12" t="str">
         <f t="array" ref="K34">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -3754,7 +3744,7 @@
       </c>
       <c r="G38" s="9" t="str">
         <f t="array" ref="G38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H38" s="9" t="str">
         <f t="array" ref="H38">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B38,C38),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3794,7 +3784,7 @@
       </c>
       <c r="G39" s="9" t="str">
         <f t="array" ref="G39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H39" s="9" t="str">
         <f t="array" ref="H39">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B39,C39),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3834,7 +3824,7 @@
       </c>
       <c r="G40" s="9" t="str">
         <f t="array" ref="G40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H40" s="9" t="str">
         <f t="array" ref="H40">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B40,C40),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3874,7 +3864,7 @@
       </c>
       <c r="G41" s="9" t="str">
         <f t="array" ref="G41">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H41" s="9" t="str">
         <f t="array" ref="H41">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B41,C41),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -3882,11 +3872,11 @@
       </c>
       <c r="I41" s="9" t="str">
         <f t="array" ref="I41">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B41,C41),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="J41" s="9" t="str">
         <f t="array" ref="J41">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B41,C41),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="K41" s="12" t="str">
         <f t="array" ref="K41">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B41,C41),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
@@ -3914,7 +3904,7 @@
       </c>
       <c r="G42" s="9" t="str">
         <f t="array" ref="G42">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H42" s="9" t="str">
         <f t="array" ref="H42">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B42,C42),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4154,7 +4144,7 @@
       </c>
       <c r="G48" s="9" t="str">
         <f t="array" ref="G48">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H48" s="9" t="str">
         <f t="array" ref="H48">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B48,C48),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4194,7 +4184,7 @@
       </c>
       <c r="G49" s="9" t="str">
         <f t="array" ref="G49">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H49" s="9" t="str">
         <f t="array" ref="H49">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B49,C49),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4234,7 +4224,7 @@
       </c>
       <c r="G50" s="9" t="str">
         <f t="array" ref="G50">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H50" s="9" t="str">
         <f t="array" ref="H50">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B50,C50),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4274,7 +4264,7 @@
       </c>
       <c r="G51" s="9" t="str">
         <f t="array" ref="G51">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H51" s="9" t="str">
         <f t="array" ref="H51">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B51,C51),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4314,7 +4304,7 @@
       </c>
       <c r="G52" s="9" t="str">
         <f t="array" ref="G52">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="H52" s="9" t="str">
         <f t="array" ref="H52">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B52,C52),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4354,7 +4344,7 @@
       </c>
       <c r="G53" s="9" t="str">
         <f t="array" ref="G53">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="H53" s="9" t="str">
         <f t="array" ref="H53">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B53,C53),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4394,7 +4384,7 @@
       </c>
       <c r="G54" s="9" t="str">
         <f t="array" ref="G54">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="H54" s="9" t="str">
         <f t="array" ref="H54">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B54,C54),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4434,7 +4424,7 @@
       </c>
       <c r="G55" s="9" t="str">
         <f t="array" ref="G55">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H55" s="9" t="str">
         <f t="array" ref="H55">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B55,C55),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4474,7 +4464,7 @@
       </c>
       <c r="G56" s="9" t="str">
         <f t="array" ref="G56">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H56" s="9" t="str">
         <f t="array" ref="H56">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B56,C56),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4514,7 +4504,7 @@
       </c>
       <c r="G57" s="9" t="str">
         <f t="array" ref="G57">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H57" s="9" t="str">
         <f t="array" ref="H57">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B57,C57),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4554,7 +4544,7 @@
       </c>
       <c r="G58" s="9" t="str">
         <f t="array" ref="G58">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H58" s="9" t="str">
         <f t="array" ref="H58">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B58,C58),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4594,7 +4584,7 @@
       </c>
       <c r="G59" s="9" t="str">
         <f t="array" ref="G59">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H59" s="9" t="str">
         <f t="array" ref="H59">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B59,C59),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4634,7 +4624,7 @@
       </c>
       <c r="G60" s="9" t="str">
         <f t="array" ref="G60">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H60" s="9" t="str">
         <f t="array" ref="H60">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B60,C60),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4674,7 +4664,7 @@
       </c>
       <c r="G61" s="9" t="str">
         <f t="array" ref="G61">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H61" s="9" t="str">
         <f t="array" ref="H61">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B61,C61),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4714,7 +4704,7 @@
       </c>
       <c r="G62" s="9" t="str">
         <f t="array" ref="G62">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H62" s="9" t="str">
         <f t="array" ref="H62">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B62,C62),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4754,7 +4744,7 @@
       </c>
       <c r="G63" s="9" t="str">
         <f t="array" ref="G63">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H63" s="9" t="str">
         <f t="array" ref="H63">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B63,C63),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4794,7 +4784,7 @@
       </c>
       <c r="G64" s="9" t="str">
         <f t="array" ref="G64">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H64" s="9" t="str">
         <f t="array" ref="H64">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B64,C64),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4834,7 +4824,7 @@
       </c>
       <c r="G65" s="9" t="str">
         <f t="array" ref="G65">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H65" s="9" t="str">
         <f t="array" ref="H65">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B65,C65),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -4874,7 +4864,7 @@
       </c>
       <c r="G66" s="9" t="str">
         <f t="array" ref="G66">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H66" s="9" t="str">
         <f t="array" ref="H66">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B66,C66),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
@@ -5128,8 +5118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5144,7 +5134,7 @@
         <v>50</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>37</v>
@@ -5176,7 +5166,7 @@
         <f>1/10000</f>
         <v>1E-4</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="5">
@@ -5189,12 +5179,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="9">
         <v>21.02</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="10">
@@ -5207,7 +5197,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="65" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="10">
@@ -5220,7 +5210,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="10">
@@ -5233,7 +5223,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="67" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="15">
@@ -5246,12 +5236,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="54" t="s">
         <v>36</v>
@@ -5262,8 +5252,8 @@
         <v>51</v>
       </c>
       <c r="E13" s="26">
-        <f>1/30*B3</f>
-        <v>1.1111111111111112E-6</v>
+        <f>1/1000*B3</f>
+        <v>3.3333333333333334E-8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -5271,8 +5261,8 @@
         <v>52</v>
       </c>
       <c r="E14" s="26">
-        <f>1/10*B3</f>
-        <v>3.3333333333333337E-6</v>
+        <f>1/100*B3</f>
+        <v>3.3333333333333335E-7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5280,8 +5270,8 @@
         <v>53</v>
       </c>
       <c r="E15" s="26">
-        <f>1/3*B3</f>
-        <v>1.1111111111111112E-5</v>
+        <f>1/10*B3</f>
+        <v>3.3333333333333337E-6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5307,38 +5297,32 @@
         <v>56</v>
       </c>
       <c r="E18" s="26">
-        <f>3*B4</f>
-        <v>3.0000000000000003E-4</v>
+        <f>10*B4</f>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="26">
-        <f>10*B4</f>
-        <v>1E-3</v>
+      <c r="E19" s="12">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" s="28"/>
@@ -5413,7 +5397,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -5448,7 +5432,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5459,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -5508,14 +5492,14 @@
         <v>43</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
@@ -5660,7 +5644,7 @@
       </c>
       <c r="V12" s="9">
         <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V12)</f>
@@ -5736,7 +5720,7 @@
       </c>
       <c r="V13" s="9">
         <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V13)</f>
@@ -5812,7 +5796,7 @@
       </c>
       <c r="V14" s="9">
         <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V14)</f>
@@ -5864,7 +5848,7 @@
       </c>
       <c r="O15" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" ref="Q15:Q34" si="9">IF(AND(F15="Geen faalkans",I15="Nee"),1,1-M15)</f>
@@ -5892,7 +5876,7 @@
       </c>
       <c r="W15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V15)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X15" s="12" t="b">
         <f t="shared" si="8"/>
@@ -5940,7 +5924,7 @@
       </c>
       <c r="O16" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" si="9"/>
@@ -5960,7 +5944,7 @@
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.0000000000000003E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="V16" s="9">
         <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
@@ -5968,7 +5952,7 @@
       </c>
       <c r="W16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V16)</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="X16" s="12" t="b">
         <f t="shared" si="8"/>
@@ -6040,7 +6024,7 @@
       </c>
       <c r="V17" s="9">
         <f>IFERROR(MATCH($U17,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V17)</f>
@@ -6116,7 +6100,7 @@
       </c>
       <c r="V18" s="9">
         <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V18)</f>
@@ -6168,7 +6152,7 @@
       </c>
       <c r="O19" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q19" s="31">
         <f t="shared" si="9"/>
@@ -6196,7 +6180,7 @@
       </c>
       <c r="W19" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V19)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X19" s="12" t="b">
         <f t="shared" si="8"/>
@@ -6205,7 +6189,7 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="9">
         <v>8.9220000000000006</v>
@@ -6268,7 +6252,7 @@
       </c>
       <c r="V20" s="9">
         <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V20)</f>
@@ -6281,7 +6265,7 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="9">
         <v>9.3160000000000007</v>
@@ -6340,7 +6324,7 @@
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="V21" s="9">
         <f>IFERROR(MATCH($U21,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
@@ -6357,7 +6341,7 @@
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="9">
         <v>10.252000000000001</v>
@@ -6416,7 +6400,7 @@
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333334E-8</v>
       </c>
       <c r="V22" s="9">
         <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
@@ -6433,7 +6417,7 @@
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="9">
         <v>11.069000000000001</v>
@@ -6496,7 +6480,7 @@
       </c>
       <c r="V23" s="9">
         <f>IFERROR(MATCH($U23,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W23" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V23)</f>
@@ -6509,7 +6493,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="9">
         <v>12.009</v>
@@ -6572,7 +6556,7 @@
       </c>
       <c r="V24" s="9">
         <f>IFERROR(MATCH($U24,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W24" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V24)</f>
@@ -6585,7 +6569,7 @@
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="9">
         <v>13.311999999999999</v>
@@ -6648,7 +6632,7 @@
       </c>
       <c r="V25" s="9">
         <f>IFERROR(MATCH($U25,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W25" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V25)</f>
@@ -6661,7 +6645,7 @@
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="9">
         <v>13.815</v>
@@ -6724,7 +6708,7 @@
       </c>
       <c r="V26" s="9">
         <f>IFERROR(MATCH($U26,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V26)</f>
@@ -6737,7 +6721,7 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="9">
         <v>14.815</v>
@@ -6800,7 +6784,7 @@
       </c>
       <c r="V27" s="9">
         <f>IFERROR(MATCH($U27,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W27" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V27)</f>
@@ -6813,7 +6797,7 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="9">
         <v>15.917999999999999</v>
@@ -6876,7 +6860,7 @@
       </c>
       <c r="V28" s="9">
         <f>IFERROR(MATCH($U28,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W28" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V28)</f>
@@ -6889,7 +6873,7 @@
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="9">
         <v>16.620999999999999</v>
@@ -6952,7 +6936,7 @@
       </c>
       <c r="V29" s="9">
         <f>IFERROR(MATCH($U29,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W29" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V29)</f>
@@ -6965,7 +6949,7 @@
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="9">
         <v>17.53</v>
@@ -7028,7 +7012,7 @@
       </c>
       <c r="V30" s="9">
         <f>IFERROR(MATCH($U30,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W30" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V30)</f>
@@ -7041,7 +7025,7 @@
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="9">
         <v>18.428999999999998</v>
@@ -7104,7 +7088,7 @@
       </c>
       <c r="V31" s="9">
         <f>IFERROR(MATCH($U31,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W31" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V31)</f>
@@ -7117,7 +7101,7 @@
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C32" s="9">
         <v>18.841000000000001</v>
@@ -7180,7 +7164,7 @@
       </c>
       <c r="V32" s="9">
         <f>IFERROR(MATCH($U32,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W32" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V32)</f>
@@ -7193,7 +7177,7 @@
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C33" s="9">
         <v>19.25</v>
@@ -7256,7 +7240,7 @@
       </c>
       <c r="V33" s="9">
         <f>IFERROR(MATCH($U33,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W33" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V33)</f>
@@ -7269,7 +7253,7 @@
     </row>
     <row r="34" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="14">
         <v>20.268999999999998</v>
@@ -7332,7 +7316,7 @@
       </c>
       <c r="V34" s="14">
         <f>IFERROR(MATCH($U34,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W34" s="14" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V34)</f>
@@ -7494,7 +7478,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
@@ -7507,7 +7491,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>17</v>
@@ -7542,7 +7526,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7553,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -7602,20 +7586,20 @@
         <v>43</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
     <row r="11" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -7678,7 +7662,7 @@
       </c>
       <c r="V11" s="9">
         <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V11)</f>
@@ -7691,7 +7675,7 @@
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="9">
         <v>11.8</v>
@@ -7754,7 +7738,7 @@
       </c>
       <c r="V12" s="9">
         <f>IFERROR(MATCH($U12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V12)</f>
@@ -7767,7 +7751,7 @@
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="9">
         <v>18.2</v>
@@ -7830,7 +7814,7 @@
       </c>
       <c r="V13" s="9">
         <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V13)</f>
@@ -8396,7 +8380,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -8409,7 +8393,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -8444,7 +8428,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8486,20 +8470,20 @@
         <v>40</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>80</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -8596,7 +8580,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" ref="M12:M14" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
@@ -8624,7 +8608,7 @@
       </c>
       <c r="S12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T12" s="12" t="b">
         <f t="shared" ref="T12:T31" si="9">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
@@ -8788,7 +8772,7 @@
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" ref="K15:K31" si="12">IF(ISNUMBER($J15),S15,IF($T15,"D","ND"))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M15" s="31">
         <f t="shared" ref="M15:M31" si="13">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
@@ -8816,7 +8800,7 @@
       </c>
       <c r="S15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T15" s="12" t="b">
         <f t="shared" si="9"/>
@@ -8852,7 +8836,7 @@
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="13"/>
@@ -8880,7 +8864,7 @@
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="9"/>
@@ -8936,7 +8920,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333334E-8</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -8980,7 +8964,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="13"/>
@@ -9008,7 +8992,7 @@
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="9"/>
@@ -9081,7 +9065,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="9">
         <v>12.3819</v>
@@ -9145,7 +9129,7 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="9">
         <v>13.7217</v>
@@ -9172,7 +9156,7 @@
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M21" s="31">
         <f t="shared" si="13"/>
@@ -9200,7 +9184,7 @@
       </c>
       <c r="S21" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T21" s="12" t="b">
         <f t="shared" si="9"/>
@@ -9209,7 +9193,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" s="9">
         <v>14.618799999999998</v>
@@ -9236,7 +9220,7 @@
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="13"/>
@@ -9264,7 +9248,7 @@
       </c>
       <c r="S22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T22" s="12" t="b">
         <f t="shared" si="9"/>
@@ -9273,7 +9257,7 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="9">
         <v>15.411700000000002</v>
@@ -9300,7 +9284,7 @@
       </c>
       <c r="K23" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="M23" s="31">
         <f t="shared" si="13"/>
@@ -9320,7 +9304,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.0000000000000003E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -9328,7 +9312,7 @@
       </c>
       <c r="S23" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R23)</f>
-        <v>-I</v>
+        <v>-II</v>
       </c>
       <c r="T23" s="12" t="b">
         <f t="shared" si="9"/>
@@ -9337,7 +9321,7 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C24" s="9">
         <v>16.654199999999999</v>
@@ -9364,7 +9348,7 @@
       </c>
       <c r="K24" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M24" s="31">
         <f t="shared" si="13"/>
@@ -9392,7 +9376,7 @@
       </c>
       <c r="S24" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T24" s="12" t="b">
         <f t="shared" si="9"/>
@@ -9401,7 +9385,7 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="9">
         <v>16.792099999999998</v>
@@ -9428,7 +9412,7 @@
       </c>
       <c r="K25" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M25" s="31">
         <f t="shared" si="13"/>
@@ -9456,7 +9440,7 @@
       </c>
       <c r="S25" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R25)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T25" s="12" t="b">
         <f t="shared" si="9"/>
@@ -9465,7 +9449,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C26" s="9">
         <v>17.875299999999999</v>
@@ -9492,7 +9476,7 @@
       </c>
       <c r="K26" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M26" s="31">
         <f t="shared" si="13"/>
@@ -9520,7 +9504,7 @@
       </c>
       <c r="S26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T26" s="12" t="b">
         <f t="shared" si="9"/>
@@ -9529,7 +9513,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="9">
         <v>18.815099999999997</v>
@@ -9556,7 +9540,7 @@
       </c>
       <c r="K27" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M27" s="31">
         <f t="shared" si="13"/>
@@ -9584,7 +9568,7 @@
       </c>
       <c r="S27" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R27)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T27" s="12" t="b">
         <f t="shared" si="9"/>
@@ -9593,7 +9577,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C28" s="9">
         <v>19.217200000000002</v>
@@ -9620,7 +9604,7 @@
       </c>
       <c r="K28" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M28" s="31">
         <f t="shared" si="13"/>
@@ -9648,7 +9632,7 @@
       </c>
       <c r="S28" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R28)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T28" s="12" t="b">
         <f t="shared" si="9"/>
@@ -9657,7 +9641,7 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="9">
         <v>19.761599999999998</v>
@@ -9684,7 +9668,7 @@
       </c>
       <c r="K29" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M29" s="31">
         <f t="shared" si="13"/>
@@ -9712,7 +9696,7 @@
       </c>
       <c r="S29" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R29)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T29" s="12" t="b">
         <f t="shared" si="9"/>
@@ -9721,7 +9705,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="9">
         <v>20.358799999999999</v>
@@ -9785,7 +9769,7 @@
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="9">
         <v>20.5168</v>
@@ -9812,7 +9796,7 @@
       </c>
       <c r="K31" s="32" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M31" s="31">
         <f t="shared" si="13"/>
@@ -9840,7 +9824,7 @@
       </c>
       <c r="S31" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R31)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T31" s="12" t="b">
         <f t="shared" si="9"/>
@@ -10795,7 +10779,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -10808,7 +10792,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -10843,7 +10827,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10891,14 +10875,14 @@
         <v>43</v>
       </c>
       <c r="Q10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -10948,7 +10932,7 @@
       </c>
       <c r="Q11" s="14">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333334E-8</v>
       </c>
       <c r="R11" s="14">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
@@ -11116,7 +11100,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -11129,7 +11113,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -11164,7 +11148,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11206,20 +11190,20 @@
         <v>40</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>80</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -11270,7 +11254,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -11287,7 +11271,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="9">
         <v>0.4</v>
@@ -11334,7 +11318,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333334E-8</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -11396,7 +11380,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -11413,7 +11397,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="9">
         <v>1.4</v>
@@ -11440,7 +11424,7 @@
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="8"/>
@@ -11460,15 +11444,15 @@
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333337E-6</v>
       </c>
       <c r="R14" s="9">
         <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T14" s="12" t="b">
         <f t="shared" si="6"/>
@@ -11522,7 +11506,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -11539,7 +11523,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="9">
         <v>2.2999999999999998</v>
@@ -11566,7 +11550,7 @@
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="8"/>
@@ -11586,15 +11570,15 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="6"/>
@@ -11648,7 +11632,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -11665,7 +11649,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="9">
         <v>5.8</v>
@@ -11692,7 +11676,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="8"/>
@@ -11712,15 +11696,15 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="6"/>
@@ -11774,7 +11758,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -11791,7 +11775,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="9">
         <v>7.1</v>
@@ -11818,7 +11802,7 @@
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" ref="K20:K31" si="13">IF(ISNUMBER($J20),S20,IF($T20,"D","ND"))</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" ref="M20:M31" si="14">IF(AND(F20="Geen faalkans",H20="Nee"),1,1-J20)</f>
@@ -11838,15 +11822,15 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T20" s="12" t="b">
         <f t="shared" si="6"/>
@@ -11855,7 +11839,7 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="9">
         <v>7.11</v>
@@ -11900,7 +11884,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -11917,7 +11901,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="9">
         <v>9.1999999999999993</v>
@@ -11964,7 +11948,7 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333334E-8</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -11981,7 +11965,7 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="9">
         <v>9.2100000000000009</v>
@@ -12026,7 +12010,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -12043,7 +12027,7 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="9">
         <v>9.5</v>
@@ -12070,7 +12054,7 @@
       </c>
       <c r="K24" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M24" s="31">
         <f t="shared" si="14"/>
@@ -12090,15 +12074,15 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333337E-6</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S24" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T24" s="12" t="b">
         <f t="shared" si="6"/>
@@ -12107,7 +12091,7 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="9">
         <v>9.51</v>
@@ -12152,7 +12136,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -12169,7 +12153,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="9">
         <v>9.6</v>
@@ -12196,7 +12180,7 @@
       </c>
       <c r="K26" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M26" s="31">
         <f t="shared" si="14"/>
@@ -12216,15 +12200,15 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333337E-6</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T26" s="12" t="b">
         <f t="shared" si="6"/>
@@ -12233,7 +12217,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="9">
         <v>9.61</v>
@@ -12278,7 +12262,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -12295,7 +12279,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="9">
         <v>10</v>
@@ -12342,7 +12326,7 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333334E-8</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -12359,7 +12343,7 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="9">
         <v>10.1</v>
@@ -12404,7 +12388,7 @@
       </c>
       <c r="Q29" s="9">
         <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R29" s="9">
         <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -12421,7 +12405,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="9">
         <v>11.2</v>
@@ -12448,7 +12432,7 @@
       </c>
       <c r="K30" s="32" t="str">
         <f t="shared" si="13"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M30" s="31">
         <f t="shared" si="14"/>
@@ -12468,15 +12452,15 @@
       </c>
       <c r="Q30" s="9">
         <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R30" s="9">
         <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R30)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T30" s="12" t="b">
         <f t="shared" si="6"/>
@@ -12485,7 +12469,7 @@
     </row>
     <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="14">
         <v>11.21</v>
@@ -12530,7 +12514,7 @@
       </c>
       <c r="Q31" s="9">
         <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R31" s="9">
         <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -12692,7 +12676,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -12705,7 +12689,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -12740,7 +12724,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12782,20 +12766,20 @@
         <v>40</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>80</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -12846,7 +12830,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -12863,7 +12847,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="9">
         <v>0.4</v>
@@ -12890,7 +12874,7 @@
       </c>
       <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M12" s="31">
         <f t="shared" si="2"/>
@@ -12910,15 +12894,15 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T12" s="12" t="b">
         <f t="shared" ref="T12:T31" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
@@ -12972,7 +12956,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -12989,7 +12973,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="9">
         <v>1.4</v>
@@ -13016,7 +13000,7 @@
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="2"/>
@@ -13044,7 +13028,7 @@
       </c>
       <c r="S14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T14" s="12" t="b">
         <f t="shared" si="6"/>
@@ -13098,7 +13082,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13115,7 +13099,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="9">
         <v>2.2999999999999998</v>
@@ -13162,7 +13146,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333334E-8</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13224,7 +13208,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13241,7 +13225,7 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="9">
         <v>5.8</v>
@@ -13268,7 +13252,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="2"/>
@@ -13288,15 +13272,15 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333337E-6</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="6"/>
@@ -13350,7 +13334,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13367,7 +13351,7 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="9">
         <v>7.1</v>
@@ -13394,7 +13378,7 @@
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" si="2"/>
@@ -13414,15 +13398,15 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333337E-6</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T20" s="12" t="b">
         <f t="shared" si="6"/>
@@ -13431,7 +13415,7 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="9">
         <v>7.11</v>
@@ -13476,7 +13460,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13493,7 +13477,7 @@
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="9">
         <v>9.1999999999999993</v>
@@ -13520,7 +13504,7 @@
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="2"/>
@@ -13548,7 +13532,7 @@
       </c>
       <c r="S22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T22" s="12" t="b">
         <f t="shared" si="6"/>
@@ -13557,7 +13541,7 @@
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="9">
         <v>9.2100000000000009</v>
@@ -13602,7 +13586,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13619,7 +13603,7 @@
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="9">
         <v>9.5</v>
@@ -13666,7 +13650,7 @@
       </c>
       <c r="Q24" s="9">
         <f t="array" ref="Q24">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J24,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333334E-8</v>
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13683,7 +13667,7 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="9">
         <v>9.51</v>
@@ -13728,7 +13712,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13745,7 +13729,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="9">
         <v>9.6</v>
@@ -13772,7 +13756,7 @@
       </c>
       <c r="K26" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="M26" s="31">
         <f t="shared" si="2"/>
@@ -13792,15 +13776,15 @@
       </c>
       <c r="Q26" s="9">
         <f t="array" ref="Q26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R26" s="9">
         <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
-        <v>+III</v>
+        <v>+II</v>
       </c>
       <c r="T26" s="12" t="b">
         <f t="shared" si="6"/>
@@ -13809,7 +13793,7 @@
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="9">
         <v>9.61</v>
@@ -13854,7 +13838,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13871,7 +13855,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="9">
         <v>10</v>
@@ -13918,7 +13902,7 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333334E-8</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13935,7 +13919,7 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="9">
         <v>10.1</v>
@@ -13980,7 +13964,7 @@
       </c>
       <c r="Q29" s="9">
         <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R29" s="9">
         <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -13997,7 +13981,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="9">
         <v>11.2</v>
@@ -14024,7 +14008,7 @@
       </c>
       <c r="K30" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="M30" s="31">
         <f t="shared" si="2"/>
@@ -14044,15 +14028,15 @@
       </c>
       <c r="Q30" s="9">
         <f t="array" ref="Q30">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J30,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>3.3333333333333337E-6</v>
       </c>
       <c r="R30" s="9">
         <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S30" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R30)</f>
-        <v>+III</v>
+        <v>+I</v>
       </c>
       <c r="T30" s="12" t="b">
         <f t="shared" si="6"/>
@@ -14061,7 +14045,7 @@
     </row>
     <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="14">
         <v>11.21</v>
@@ -14106,7 +14090,7 @@
       </c>
       <c r="Q31" s="9">
         <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R31" s="9">
         <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14243,7 +14227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
   <dimension ref="B2:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -14268,7 +14252,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -14281,7 +14265,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>18</v>
@@ -14316,7 +14300,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14358,20 +14342,20 @@
         <v>40</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>80</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>60</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>61</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -14422,7 +14406,7 @@
       </c>
       <c r="Q11" s="9">
         <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
         <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14439,7 +14423,7 @@
     </row>
     <row r="12" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="9">
         <v>0.4</v>
@@ -14486,7 +14470,7 @@
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14548,7 +14532,7 @@
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14565,7 +14549,7 @@
     </row>
     <row r="14" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="9">
         <v>1.4</v>
@@ -14674,7 +14658,7 @@
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14691,7 +14675,7 @@
     </row>
     <row r="16" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="9">
         <v>2.2999999999999998</v>
@@ -14705,7 +14689,7 @@
       <c r="F16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="69">
         <v>0</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -14738,7 +14722,7 @@
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14800,7 +14784,7 @@
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
         <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14817,7 +14801,7 @@
     </row>
     <row r="18" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="9">
         <v>5.8</v>
@@ -14864,7 +14848,7 @@
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R18" s="9">
         <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14926,7 +14910,7 @@
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -14943,7 +14927,7 @@
     </row>
     <row r="20" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C20" s="9">
         <v>7.1</v>
@@ -14990,7 +14974,7 @@
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R20" s="9">
         <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -15007,7 +14991,7 @@
     </row>
     <row r="21" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C21" s="9">
         <v>7.11</v>
@@ -15052,7 +15036,7 @@
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
         <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -15069,7 +15053,7 @@
     </row>
     <row r="22" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="9">
         <v>9.1999999999999993</v>
@@ -15096,7 +15080,7 @@
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="2"/>
@@ -15116,15 +15100,15 @@
       </c>
       <c r="Q22" s="9">
         <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-5</v>
+        <v>3.3333333333333335E-5</v>
       </c>
       <c r="R22" s="9">
         <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>+I</v>
+        <v>+0</v>
       </c>
       <c r="T22" s="12" t="b">
         <f t="shared" si="6"/>
@@ -15133,7 +15117,7 @@
     </row>
     <row r="23" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C23" s="9">
         <v>9.2100000000000009</v>
@@ -15178,7 +15162,7 @@
       </c>
       <c r="Q23" s="9">
         <f t="array" ref="Q23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
         <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -15195,7 +15179,7 @@
     </row>
     <row r="24" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="9">
         <v>9.5</v>
@@ -15246,7 +15230,7 @@
       </c>
       <c r="R24" s="9">
         <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S24" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R24)</f>
@@ -15259,7 +15243,7 @@
     </row>
     <row r="25" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="9">
         <v>9.51</v>
@@ -15304,7 +15288,7 @@
       </c>
       <c r="Q25" s="9">
         <f t="array" ref="Q25">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J25,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R25" s="9">
         <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -15321,7 +15305,7 @@
     </row>
     <row r="26" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="9">
         <v>9.6</v>
@@ -15348,7 +15332,7 @@
       </c>
       <c r="K26" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M26" s="31">
         <f t="shared" si="2"/>
@@ -15376,7 +15360,7 @@
       </c>
       <c r="S26" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R26)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T26" s="12" t="b">
         <f t="shared" si="6"/>
@@ -15385,7 +15369,7 @@
     </row>
     <row r="27" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" s="9">
         <v>9.61</v>
@@ -15430,7 +15414,7 @@
       </c>
       <c r="Q27" s="9">
         <f t="array" ref="Q27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R27" s="9">
         <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -15447,7 +15431,7 @@
     </row>
     <row r="28" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="9">
         <v>10</v>
@@ -15494,7 +15478,7 @@
       </c>
       <c r="Q28" s="9">
         <f t="array" ref="Q28">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J28,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R28" s="9">
         <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -15511,7 +15495,7 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="9">
         <v>10.1</v>
@@ -15556,7 +15540,7 @@
       </c>
       <c r="Q29" s="9">
         <f t="array" ref="Q29">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J29,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R29" s="9">
         <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
@@ -15573,7 +15557,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="9">
         <v>11.2</v>
@@ -15637,7 +15621,7 @@
     </row>
     <row r="31" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="14">
         <v>11.21</v>
@@ -15682,7 +15666,7 @@
       </c>
       <c r="Q31" s="14">
         <f t="array" ref="Q31">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J31,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>1.1111111111111112E-6</v>
+        <v>0</v>
       </c>
       <c r="R31" s="14">
         <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 36-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 36-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1089CB-08A0-4AB5-A35D-65059A24807A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826187A-0A5C-4FE7-B467-A9CA1B90D138}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="135">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t>Lengte-effect</t>
+  </si>
+  <si>
+    <t>Gecombineerd (tussentijds)</t>
   </si>
 </sst>
 </file>
@@ -2279,51 +2282,55 @@
   <sheetPr>
     <tabColor rgb="FF9900FF"/>
   </sheetPr>
-  <dimension ref="B1:K103"/>
+  <dimension ref="B1:L103"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E68" sqref="E3:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="K2" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="L2" s="54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2331,39 +2338,43 @@
         <v>0.4</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D66" si="0">IF(COUNTIF(E3:K3,"D")&gt;0,"D",IF(COUNTIF(E3:K3,"-III")&gt;0,"-III",IF(COUNTIF(E3:K3,"-II")&gt;0,"-II",IF(COUNTIF(E3:K3,"-I")&gt;0,"-I",IF(COUNTIF(E3:K3,"+0")&gt;0,"+0",IF(COUNTIF(E3:K3,"+I")&gt;0,"+I",IF(COUNTIF(E3:K3,"+II")&gt;0,"+II",IF(COUNTIF(E3:K3,"+III")&gt;0,"+III","ND"))))))))</f>
-        <v>-III</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f t="array" ref="E3">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B3,C3),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <f t="shared" ref="D3:D66" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
+        <v>-III</v>
+      </c>
+      <c r="E3" s="22" t="str">
+        <f t="shared" ref="E3:E66" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
+        <v>-III</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="array" ref="F3">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B3,C3),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>+0</v>
       </c>
-      <c r="F3" s="4" t="str">
-        <f t="array" ref="F3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G3" s="4" t="str">
-        <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H3" s="4" t="str">
+        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I3" s="4" t="str">
-        <f t="array" ref="I3">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="array" ref="J3">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K3" s="7" t="str">
-        <f t="array" ref="K3">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K3" s="4" t="str">
+        <f t="array" ref="K3">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L3" s="7" t="str">
+        <f t="array" ref="L3">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>0.4</v>
       </c>
@@ -2374,36 +2385,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E4" s="9" t="str">
-        <f t="array" ref="E4">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B4,C4),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E4" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f t="array" ref="F4">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B4,C4),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>+0</v>
       </c>
-      <c r="F4" s="9" t="str">
-        <f t="array" ref="F4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G4" s="9" t="str">
-        <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H4" s="9" t="str">
+        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I4" s="9" t="str">
-        <f t="array" ref="I4">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f t="array" ref="J4">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K4" s="9" t="str">
+        <f t="array" ref="K4">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
         <v>+II</v>
       </c>
-      <c r="K4" s="12" t="str">
-        <f t="array" ref="K4">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="12" t="str">
+        <f t="array" ref="L4">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>0.41</v>
       </c>
@@ -2414,36 +2429,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E5" s="9" t="str">
-        <f t="array" ref="E5">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B5,C5),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F5" s="9" t="str">
+        <f t="array" ref="F5">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B5,C5),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>+0</v>
       </c>
-      <c r="F5" s="9" t="str">
-        <f t="array" ref="F5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G5" s="9" t="str">
-        <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H5" s="9" t="str">
+        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I5" s="9" t="str">
-        <f t="array" ref="I5">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="array" ref="J5">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="array" ref="K5">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f t="array" ref="K5">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="array" ref="L5">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>0.66920000000000002</v>
       </c>
@@ -2454,36 +2473,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E6" s="9" t="str">
-        <f t="array" ref="E6">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B6,C6),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E6" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f t="array" ref="F6">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B6,C6),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>+0</v>
       </c>
-      <c r="F6" s="9" t="str">
-        <f t="array" ref="F6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G6" s="9" t="str">
-        <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H6" s="9" t="str">
+        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I6" s="9" t="str">
-        <f t="array" ref="I6">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="array" ref="J6">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="array" ref="K6">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="array" ref="K6">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>0.78700000000000003</v>
       </c>
@@ -2494,36 +2517,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E7" s="9" t="str">
-        <f t="array" ref="E7">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B7,C7),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E7" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="array" ref="F7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F7">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B7,C7),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H7" s="9" t="str">
+        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I7" s="9" t="str">
-        <f t="array" ref="I7">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="array" ref="J7">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="array" ref="K7">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="array" ref="K7">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="array" ref="L7">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>1.3822000000000001</v>
       </c>
@@ -2534,36 +2561,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E8" s="9" t="str">
-        <f t="array" ref="E8">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B8,C8),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E8" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="array" ref="F8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F8">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B8,C8),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H8" s="9" t="str">
+        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I8" s="9" t="str">
-        <f t="array" ref="I8">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J8" s="9" t="str">
-        <f t="array" ref="J8">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="array" ref="K8">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>1.4</v>
       </c>
@@ -2574,36 +2605,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E9" s="9" t="str">
-        <f t="array" ref="E9">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B9,C9),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E9" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="array" ref="F9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F9">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B9,C9),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H9" s="9" t="str">
+        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I9" s="9" t="str">
-        <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="J9" s="9" t="str">
+        <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
         <v>+I</v>
       </c>
-      <c r="J9" s="9" t="str">
-        <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+      <c r="K9" s="9" t="str">
+        <f t="array" ref="K9">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
         <v>-I</v>
       </c>
-      <c r="K9" s="12" t="str">
-        <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+      <c r="L9" s="12" t="str">
+        <f t="array" ref="L9">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
         <v>+0</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>1.41</v>
       </c>
@@ -2614,36 +2649,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E10" s="9" t="str">
-        <f t="array" ref="E10">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B10,C10),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E10" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="array" ref="F10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F10">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B10,C10),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H10" s="9" t="str">
+        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I10" s="9" t="str">
-        <f t="array" ref="I10">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f t="array" ref="J10">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="array" ref="K10">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>1.9330000000000001</v>
       </c>
@@ -2654,36 +2693,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E11" s="9" t="str">
-        <f t="array" ref="E11">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B11,C11),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E11" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="array" ref="F11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F11">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B11,C11),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H11" s="9" t="str">
+        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I11" s="9" t="str">
-        <f t="array" ref="I11">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f t="array" ref="J11">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="array" ref="K11">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f t="array" ref="K11">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L11" s="12" t="str">
+        <f t="array" ref="L11">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>2.2999999999999998</v>
       </c>
@@ -2694,36 +2737,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E12" s="9" t="str">
-        <f t="array" ref="E12">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B12,C12),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E12" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f t="array" ref="F12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F12">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B12,C12),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f t="array" ref="G12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H12" s="9" t="str">
+        <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H12" s="9" t="str">
-        <f t="array" ref="H12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I12" s="9" t="str">
-        <f t="array" ref="I12">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="J12" s="9" t="str">
+        <f t="array" ref="J12">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
         <v>+II</v>
       </c>
-      <c r="J12" s="9" t="str">
-        <f t="array" ref="J12">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="array" ref="K12">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="9" t="str">
+        <f t="array" ref="K12">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="array" ref="L12">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>2.31</v>
       </c>
@@ -2734,36 +2781,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E13" s="9" t="str">
-        <f t="array" ref="E13">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B13,C13),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E13" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f t="array" ref="F13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F13">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B13,C13),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G13" s="9" t="str">
-        <f t="array" ref="G13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H13" s="9" t="str">
+        <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H13" s="9" t="str">
-        <f t="array" ref="H13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I13" s="9" t="str">
-        <f t="array" ref="I13">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J13" s="9" t="str">
-        <f t="array" ref="J13">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="array" ref="K13">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J13">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f t="array" ref="K13">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="array" ref="L13">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>2.9854000000000003</v>
       </c>
@@ -2774,36 +2825,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E14" s="9" t="str">
-        <f t="array" ref="E14">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B14,C14),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E14" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F14" s="9" t="str">
-        <f t="array" ref="F14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F14">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B14,C14),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G14" s="9" t="str">
-        <f t="array" ref="G14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H14" s="9" t="str">
+        <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H14" s="9" t="str">
-        <f t="array" ref="H14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I14" s="9" t="str">
-        <f t="array" ref="I14">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J14" s="9" t="str">
-        <f t="array" ref="J14">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="array" ref="K14">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J14">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f t="array" ref="K14">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="array" ref="L14">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>3.0840000000000001</v>
       </c>
@@ -2814,36 +2869,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E15" s="9" t="str">
-        <f t="array" ref="E15">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B15,C15),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E15" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F15" s="9" t="str">
-        <f t="array" ref="F15">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B15,C15),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F15">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B15,C15),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G15" s="9" t="str">
-        <f t="array" ref="G15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G15">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B15,C15),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H15" s="9" t="str">
+        <f t="array" ref="H15">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B15,C15),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H15" s="9" t="str">
-        <f t="array" ref="H15">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B15,C15),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I15" s="9" t="str">
-        <f t="array" ref="I15">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I15">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B15,C15),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J15" s="9" t="str">
-        <f t="array" ref="J15">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K15" s="12" t="str">
-        <f t="array" ref="K15">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J15">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f t="array" ref="K15">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L15" s="12" t="str">
+        <f t="array" ref="L15">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>3.585</v>
       </c>
@@ -2854,36 +2913,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E16" s="9" t="str">
-        <f t="array" ref="E16">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B16,C16),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E16" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F16" s="9" t="str">
+        <f t="array" ref="F16">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B16,C16),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-I</v>
       </c>
-      <c r="F16" s="9" t="str">
-        <f t="array" ref="F16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G16" s="9" t="str">
-        <f t="array" ref="G16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G16">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B16,C16),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H16" s="9" t="str">
+        <f t="array" ref="H16">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B16,C16),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H16" s="9" t="str">
-        <f t="array" ref="H16">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B16,C16),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I16" s="9" t="str">
-        <f t="array" ref="I16">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I16">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B16,C16),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J16" s="9" t="str">
-        <f t="array" ref="J16">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K16" s="12" t="str">
-        <f t="array" ref="K16">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J16">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f t="array" ref="K16">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L16" s="12" t="str">
+        <f t="array" ref="L16">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>4.3879999999999999</v>
       </c>
@@ -2894,36 +2957,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E17" s="9" t="str">
-        <f t="array" ref="E17">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B17,C17),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E17" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F17" s="9" t="str">
+        <f t="array" ref="F17">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B17,C17),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-II</v>
       </c>
-      <c r="F17" s="9" t="str">
-        <f t="array" ref="F17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G17" s="9" t="str">
-        <f t="array" ref="G17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G17">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B17,C17),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H17" s="9" t="str">
+        <f t="array" ref="H17">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B17,C17),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H17" s="9" t="str">
-        <f t="array" ref="H17">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B17,C17),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I17" s="9" t="str">
-        <f t="array" ref="I17">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I17">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B17,C17),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J17" s="9" t="str">
-        <f t="array" ref="J17">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f t="array" ref="K17">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J17">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f t="array" ref="K17">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L17" s="12" t="str">
+        <f t="array" ref="L17">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>5.8</v>
       </c>
@@ -2934,36 +3001,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E18" s="9" t="str">
-        <f t="array" ref="E18">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B18,C18),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E18" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F18" s="9" t="str">
+        <f t="array" ref="F18">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B18,C18),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-II</v>
       </c>
-      <c r="F18" s="9" t="str">
-        <f t="array" ref="F18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G18" s="9" t="str">
-        <f t="array" ref="G18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G18">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B18,C18),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H18" s="9" t="str">
+        <f t="array" ref="H18">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B18,C18),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H18" s="9" t="str">
-        <f t="array" ref="H18">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B18,C18),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I18" s="9" t="str">
-        <f t="array" ref="I18">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I18">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B18,C18),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="J18" s="9" t="str">
+        <f t="array" ref="J18">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
         <v>+II</v>
       </c>
-      <c r="J18" s="9" t="str">
-        <f t="array" ref="J18">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+      <c r="K18" s="9" t="str">
+        <f t="array" ref="K18">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B18,C18),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
         <v>+I</v>
       </c>
-      <c r="K18" s="12" t="str">
-        <f t="array" ref="K18">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="12" t="str">
+        <f t="array" ref="L18">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B18,C18),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>5.81</v>
       </c>
@@ -2974,36 +3045,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E19" s="9" t="str">
-        <f t="array" ref="E19">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B19,C19),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E19" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F19" s="9" t="str">
+        <f t="array" ref="F19">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B19,C19),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-II</v>
       </c>
-      <c r="F19" s="9" t="str">
-        <f t="array" ref="F19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G19" s="9" t="str">
-        <f t="array" ref="G19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G19">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B19,C19),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H19" s="9" t="str">
+        <f t="array" ref="H19">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B19,C19),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H19" s="9" t="str">
-        <f t="array" ref="H19">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B19,C19),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I19" s="9" t="str">
-        <f t="array" ref="I19">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I19">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B19,C19),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J19" s="9" t="str">
-        <f t="array" ref="J19">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K19" s="12" t="str">
-        <f t="array" ref="K19">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J19">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K19" s="9" t="str">
+        <f t="array" ref="K19">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L19" s="12" t="str">
+        <f t="array" ref="L19">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>6.1183999999999994</v>
       </c>
@@ -3014,36 +3089,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E20" s="9" t="str">
-        <f t="array" ref="E20">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B20,C20),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E20" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F20" s="9" t="str">
+        <f t="array" ref="F20">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B20,C20),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-II</v>
       </c>
-      <c r="F20" s="9" t="str">
-        <f t="array" ref="F20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G20" s="9" t="str">
-        <f t="array" ref="G20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G20">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B20,C20),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H20" s="9" t="str">
+        <f t="array" ref="H20">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B20,C20),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H20" s="9" t="str">
-        <f t="array" ref="H20">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B20,C20),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I20" s="9" t="str">
-        <f t="array" ref="I20">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I20">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B20,C20),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J20" s="9" t="str">
-        <f t="array" ref="J20">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K20" s="12" t="str">
-        <f t="array" ref="K20">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J20">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K20" s="9" t="str">
+        <f t="array" ref="K20">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L20" s="12" t="str">
+        <f t="array" ref="L20">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>7.1</v>
       </c>
@@ -3054,36 +3133,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E21" s="9" t="str">
-        <f t="array" ref="E21">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B21,C21),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E21" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F21" s="9" t="str">
+        <f t="array" ref="F21">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B21,C21),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-II</v>
       </c>
-      <c r="F21" s="9" t="str">
-        <f t="array" ref="F21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G21" s="9" t="str">
-        <f t="array" ref="G21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G21">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B21,C21),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H21" s="9" t="str">
+        <f t="array" ref="H21">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B21,C21),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H21" s="9" t="str">
-        <f t="array" ref="H21">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B21,C21),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I21" s="9" t="str">
-        <f t="array" ref="I21">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I21">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B21,C21),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="J21" s="9" t="str">
+        <f t="array" ref="J21">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
         <v>+II</v>
       </c>
-      <c r="J21" s="9" t="str">
-        <f t="array" ref="J21">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+      <c r="K21" s="9" t="str">
+        <f t="array" ref="K21">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B21,C21),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
         <v>+I</v>
       </c>
-      <c r="K21" s="12" t="str">
-        <f t="array" ref="K21">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="12" t="str">
+        <f t="array" ref="L21">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B21,C21),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
         <v>7.11</v>
       </c>
@@ -3094,36 +3177,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E22" s="9" t="str">
-        <f t="array" ref="E22">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B22,C22),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E22" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F22" s="9" t="str">
+        <f t="array" ref="F22">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B22,C22),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-II</v>
       </c>
-      <c r="F22" s="9" t="str">
-        <f t="array" ref="F22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G22" s="9" t="str">
-        <f t="array" ref="G22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G22">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B22,C22),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H22" s="9" t="str">
+        <f t="array" ref="H22">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B22,C22),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H22" s="9" t="str">
-        <f t="array" ref="H22">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B22,C22),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I22" s="9" t="str">
-        <f t="array" ref="I22">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I22">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B22,C22),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J22" s="9" t="str">
-        <f t="array" ref="J22">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K22" s="12" t="str">
-        <f t="array" ref="K22">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J22">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K22" s="9" t="str">
+        <f t="array" ref="K22">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L22" s="12" t="str">
+        <f t="array" ref="L22">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
         <v>7.1239999999999997</v>
       </c>
@@ -3134,36 +3221,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E23" s="9" t="str">
-        <f t="array" ref="E23">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B23,C23),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E23" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f t="array" ref="F23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F23">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B23,C23),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G23" s="9" t="str">
-        <f t="array" ref="G23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G23">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B23,C23),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H23" s="9" t="str">
+        <f t="array" ref="H23">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B23,C23),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H23" s="9" t="str">
-        <f t="array" ref="H23">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B23,C23),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I23" s="9" t="str">
-        <f t="array" ref="I23">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I23">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B23,C23),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J23" s="9" t="str">
-        <f t="array" ref="J23">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K23" s="12" t="str">
-        <f t="array" ref="K23">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J23">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K23" s="9" t="str">
+        <f t="array" ref="K23">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L23" s="12" t="str">
+        <f t="array" ref="L23">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
         <v>7.7080000000000002</v>
       </c>
@@ -3174,36 +3265,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E24" s="9" t="str">
-        <f t="array" ref="E24">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B24,C24),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E24" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F24" s="9" t="str">
-        <f t="array" ref="F24">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B24,C24),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F24">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B24,C24),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G24" s="9" t="str">
-        <f t="array" ref="G24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G24">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B24,C24),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H24" s="9" t="str">
+        <f t="array" ref="H24">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B24,C24),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H24" s="9" t="str">
-        <f t="array" ref="H24">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B24,C24),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I24" s="9" t="str">
-        <f t="array" ref="I24">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I24">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B24,C24),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J24" s="9" t="str">
-        <f t="array" ref="J24">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K24" s="12" t="str">
-        <f t="array" ref="K24">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J24">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K24" s="9" t="str">
+        <f t="array" ref="K24">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L24" s="12" t="str">
+        <f t="array" ref="L24">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
         <v>7.8988999999999994</v>
       </c>
@@ -3214,36 +3309,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E25" s="9" t="str">
-        <f t="array" ref="E25">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B25,C25),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E25" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F25" s="9" t="str">
-        <f t="array" ref="F25">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B25,C25),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F25">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B25,C25),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f t="array" ref="G25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G25">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B25,C25),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H25" s="9" t="str">
+        <f t="array" ref="H25">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B25,C25),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H25" s="9" t="str">
-        <f t="array" ref="H25">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B25,C25),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I25" s="9" t="str">
-        <f t="array" ref="I25">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I25">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B25,C25),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J25" s="9" t="str">
-        <f t="array" ref="J25">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K25" s="12" t="str">
-        <f t="array" ref="K25">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J25">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K25" s="9" t="str">
+        <f t="array" ref="K25">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L25" s="12" t="str">
+        <f t="array" ref="L25">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
         <v>8.1180000000000003</v>
       </c>
@@ -3254,36 +3353,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E26" s="9" t="str">
-        <f t="array" ref="E26">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B26,C26),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E26" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F26" s="9" t="str">
+        <f t="array" ref="F26">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B26,C26),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-I</v>
       </c>
-      <c r="F26" s="9" t="str">
-        <f t="array" ref="F26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G26" s="9" t="str">
-        <f t="array" ref="G26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G26">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B26,C26),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H26" s="9" t="str">
+        <f t="array" ref="H26">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B26,C26),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H26" s="9" t="str">
-        <f t="array" ref="H26">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B26,C26),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I26" s="9" t="str">
-        <f t="array" ref="I26">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I26">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B26,C26),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J26" s="9" t="str">
-        <f t="array" ref="J26">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K26" s="12" t="str">
-        <f t="array" ref="K26">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J26">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K26" s="9" t="str">
+        <f t="array" ref="K26">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L26" s="12" t="str">
+        <f t="array" ref="L26">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
         <v>8.9220000000000006</v>
       </c>
@@ -3294,36 +3397,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E27" s="9" t="str">
-        <f t="array" ref="E27">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B27,C27),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E27" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F27" s="9" t="str">
-        <f t="array" ref="F27">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B27,C27),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F27">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B27,C27),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f t="array" ref="G27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G27">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B27,C27),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H27" s="9" t="str">
+        <f t="array" ref="H27">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B27,C27),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H27" s="9" t="str">
-        <f t="array" ref="H27">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B27,C27),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I27" s="9" t="str">
-        <f t="array" ref="I27">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I27">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B27,C27),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J27" s="9" t="str">
-        <f t="array" ref="J27">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K27" s="12" t="str">
-        <f t="array" ref="K27">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J27">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K27" s="9" t="str">
+        <f t="array" ref="K27">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L27" s="12" t="str">
+        <f t="array" ref="L27">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
         <v>9.1999999999999993</v>
       </c>
@@ -3334,36 +3441,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E28" s="9" t="str">
-        <f t="array" ref="E28">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B28,C28),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E28" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F28" s="9" t="str">
-        <f t="array" ref="F28">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B28,C28),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F28">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B28,C28),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f t="array" ref="G28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G28">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B28,C28),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H28" s="9" t="str">
+        <f t="array" ref="H28">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B28,C28),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H28" s="9" t="str">
-        <f t="array" ref="H28">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B28,C28),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I28" s="9" t="str">
-        <f t="array" ref="I28">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I28">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B28,C28),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J28" s="9" t="str">
-        <f t="array" ref="J28">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <f t="array" ref="J28">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K28" s="9" t="str">
+        <f t="array" ref="K28">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B28,C28),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
         <v>-I</v>
       </c>
-      <c r="K28" s="12" t="str">
-        <f t="array" ref="K28">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+      <c r="L28" s="12" t="str">
+        <f t="array" ref="L28">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B28,C28),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
         <v>+0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="8">
         <v>9.2100000000000009</v>
       </c>
@@ -3374,36 +3485,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E29" s="9" t="str">
-        <f t="array" ref="E29">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B29,C29),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E29" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F29" s="9" t="str">
-        <f t="array" ref="F29">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B29,C29),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F29">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B29,C29),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G29" s="9" t="str">
-        <f t="array" ref="G29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G29">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B29,C29),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H29" s="9" t="str">
+        <f t="array" ref="H29">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B29,C29),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H29" s="9" t="str">
-        <f t="array" ref="H29">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B29,C29),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I29" s="9" t="str">
-        <f t="array" ref="I29">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I29">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B29,C29),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J29" s="9" t="str">
-        <f t="array" ref="J29">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K29" s="12" t="str">
-        <f t="array" ref="K29">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J29">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K29" s="9" t="str">
+        <f t="array" ref="K29">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L29" s="12" t="str">
+        <f t="array" ref="L29">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
         <v>9.3124000000000002</v>
       </c>
@@ -3414,36 +3529,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E30" s="9" t="str">
-        <f t="array" ref="E30">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B30,C30),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E30" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f t="array" ref="F30">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B30,C30),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F30">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B30,C30),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G30" s="9" t="str">
-        <f t="array" ref="G30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G30">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B30,C30),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="H30" s="9" t="str">
-        <f t="array" ref="H30">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B30,C30),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H30">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B30,C30),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I30" s="9" t="str">
-        <f t="array" ref="I30">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I30">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B30,C30),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J30" s="9" t="str">
-        <f t="array" ref="J30">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K30" s="12" t="str">
-        <f t="array" ref="K30">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J30">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K30" s="9" t="str">
+        <f t="array" ref="K30">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L30" s="12" t="str">
+        <f t="array" ref="L30">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
         <v>9.3160000000000007</v>
       </c>
@@ -3454,36 +3573,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E31" s="9" t="str">
-        <f t="array" ref="E31">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B31,C31),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+      <c r="E31" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
       </c>
       <c r="F31" s="9" t="str">
-        <f t="array" ref="F31">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B31,C31),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <f t="array" ref="F31">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B31,C31),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <v>+III</v>
       </c>
       <c r="G31" s="9" t="str">
-        <f t="array" ref="G31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G31">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B31,C31),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="H31" s="9" t="str">
-        <f t="array" ref="H31">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B31,C31),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H31">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B31,C31),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I31" s="9" t="str">
-        <f t="array" ref="I31">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I31">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B31,C31),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J31" s="9" t="str">
-        <f t="array" ref="J31">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K31" s="12" t="str">
-        <f t="array" ref="K31">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J31">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K31" s="9" t="str">
+        <f t="array" ref="K31">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L31" s="12" t="str">
+        <f t="array" ref="L31">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
         <v>9.5</v>
       </c>
@@ -3494,36 +3617,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E32" s="9" t="str">
-        <f t="array" ref="E32">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B32,C32),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+      <c r="E32" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
       </c>
       <c r="F32" s="9" t="str">
-        <f t="array" ref="F32">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B32,C32),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <f t="array" ref="F32">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B32,C32),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <v>+III</v>
       </c>
       <c r="G32" s="9" t="str">
-        <f t="array" ref="G32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G32">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B32,C32),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="H32" s="9" t="str">
-        <f t="array" ref="H32">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B32,C32),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H32">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B32,C32),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I32" s="9" t="str">
-        <f t="array" ref="I32">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I32">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B32,C32),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="J32" s="9" t="str">
+        <f t="array" ref="J32">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
         <v>+I</v>
       </c>
-      <c r="J32" s="9" t="str">
-        <f t="array" ref="J32">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K32" s="12" t="str">
-        <f t="array" ref="K32">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>-III</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="9" t="str">
+        <f t="array" ref="K32">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B32,C32),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L32" s="12" t="str">
+        <f t="array" ref="L32">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B32,C32),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>-III</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
         <v>9.51</v>
       </c>
@@ -3534,36 +3661,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E33" s="9" t="str">
-        <f t="array" ref="E33">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B33,C33),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+      <c r="E33" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
       </c>
       <c r="F33" s="9" t="str">
-        <f t="array" ref="F33">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B33,C33),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <f t="array" ref="F33">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B33,C33),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <v>+III</v>
       </c>
       <c r="G33" s="9" t="str">
-        <f t="array" ref="G33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G33">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B33,C33),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="H33" s="9" t="str">
-        <f t="array" ref="H33">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B33,C33),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H33">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B33,C33),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I33" s="9" t="str">
-        <f t="array" ref="I33">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I33">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B33,C33),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J33" s="9" t="str">
-        <f t="array" ref="J33">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K33" s="12" t="str">
-        <f t="array" ref="K33">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J33">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K33" s="9" t="str">
+        <f t="array" ref="K33">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L33" s="12" t="str">
+        <f t="array" ref="L33">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
         <v>9.6</v>
       </c>
@@ -3574,36 +3705,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E34" s="9" t="str">
-        <f t="array" ref="E34">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B34,C34),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+      <c r="E34" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
       </c>
       <c r="F34" s="9" t="str">
-        <f t="array" ref="F34">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B34,C34),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <f t="array" ref="F34">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B34,C34),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <v>+III</v>
       </c>
       <c r="G34" s="9" t="str">
-        <f t="array" ref="G34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G34">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B34,C34),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="H34" s="9" t="str">
-        <f t="array" ref="H34">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B34,C34),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H34">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B34,C34),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I34" s="9" t="str">
-        <f t="array" ref="I34">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I34">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B34,C34),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="J34" s="9" t="str">
+        <f t="array" ref="J34">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
         <v>+I</v>
       </c>
-      <c r="J34" s="9" t="str">
-        <f t="array" ref="J34">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+      <c r="K34" s="9" t="str">
+        <f t="array" ref="K34">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B34,C34),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
         <v>+II</v>
       </c>
-      <c r="K34" s="12" t="str">
-        <f t="array" ref="K34">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+      <c r="L34" s="12" t="str">
+        <f t="array" ref="L34">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B34,C34),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
         <v>-I</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
         <v>9.61</v>
       </c>
@@ -3614,36 +3749,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E35" s="9" t="str">
-        <f t="array" ref="E35">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B35,C35),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+      <c r="E35" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
       </c>
       <c r="F35" s="9" t="str">
-        <f t="array" ref="F35">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B35,C35),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <f t="array" ref="F35">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B35,C35),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <v>+III</v>
       </c>
       <c r="G35" s="9" t="str">
-        <f t="array" ref="G35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G35">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B35,C35),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="H35" s="9" t="str">
-        <f t="array" ref="H35">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B35,C35),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H35">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B35,C35),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I35" s="9" t="str">
-        <f t="array" ref="I35">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I35">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B35,C35),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J35" s="9" t="str">
-        <f t="array" ref="J35">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K35" s="12" t="str">
-        <f t="array" ref="K35">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J35">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K35" s="9" t="str">
+        <f t="array" ref="K35">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L35" s="12" t="str">
+        <f t="array" ref="L35">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
         <v>10</v>
       </c>
@@ -3654,36 +3793,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E36" s="9" t="str">
-        <f t="array" ref="E36">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B36,C36),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+      <c r="E36" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
       </c>
       <c r="F36" s="9" t="str">
-        <f t="array" ref="F36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <f t="array" ref="F36">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B36,C36),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <v>+III</v>
       </c>
       <c r="G36" s="9" t="str">
-        <f t="array" ref="G36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G36">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B36,C36),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="H36" s="9" t="str">
-        <f t="array" ref="H36">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B36,C36),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H36">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B36,C36),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I36" s="9" t="str">
-        <f t="array" ref="I36">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I36">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B36,C36),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J36" s="9" t="str">
-        <f t="array" ref="J36">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K36" s="12" t="str">
-        <f t="array" ref="K36">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J36">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K36" s="9" t="str">
+        <f t="array" ref="K36">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B36,C36),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L36" s="12" t="str">
+        <f t="array" ref="L36">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B36,C36),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
         <v>10.1</v>
       </c>
@@ -3694,36 +3837,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E37" s="9" t="str">
-        <f t="array" ref="E37">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B37,C37),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+      <c r="E37" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
       </c>
       <c r="F37" s="9" t="str">
-        <f t="array" ref="F37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <f t="array" ref="F37">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B37,C37),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <v>+III</v>
       </c>
       <c r="G37" s="9" t="str">
-        <f t="array" ref="G37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <f t="array" ref="G37">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B37,C37),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
       </c>
       <c r="H37" s="9" t="str">
-        <f t="array" ref="H37">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B37,C37),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H37">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B37,C37),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="I37" s="9" t="str">
-        <f t="array" ref="I37">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I37">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B37,C37),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J37" s="9" t="str">
-        <f t="array" ref="J37">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K37" s="12" t="str">
-        <f t="array" ref="K37">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J37">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K37" s="9" t="str">
+        <f t="array" ref="K37">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L37" s="12" t="str">
+        <f t="array" ref="L37">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
         <v>10.2233</v>
       </c>
@@ -3734,36 +3881,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E38" s="9" t="str">
-        <f t="array" ref="E38">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B38,C38),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+      <c r="E38" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
       </c>
       <c r="F38" s="9" t="str">
-        <f t="array" ref="F38">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B38,C38),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <f t="array" ref="F38">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B38,C38),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <v>+III</v>
       </c>
       <c r="G38" s="9" t="str">
-        <f t="array" ref="G38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G38">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B38,C38),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H38" s="9" t="str">
+        <f t="array" ref="H38">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B38,C38),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H38" s="9" t="str">
-        <f t="array" ref="H38">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B38,C38),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I38" s="9" t="str">
-        <f t="array" ref="I38">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I38">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B38,C38),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J38" s="9" t="str">
-        <f t="array" ref="J38">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K38" s="12" t="str">
-        <f t="array" ref="K38">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J38">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K38" s="9" t="str">
+        <f t="array" ref="K38">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L38" s="12" t="str">
+        <f t="array" ref="L38">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>10.252000000000001</v>
       </c>
@@ -3774,36 +3925,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E39" s="9" t="str">
-        <f t="array" ref="E39">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B39,C39),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
-        <v>+III</v>
+      <c r="E39" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
       </c>
       <c r="F39" s="9" t="str">
-        <f t="array" ref="F39">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B39,C39),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
+        <f t="array" ref="F39">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B39,C39),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <v>+III</v>
       </c>
       <c r="G39" s="9" t="str">
-        <f t="array" ref="G39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G39">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B39,C39),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H39" s="9" t="str">
+        <f t="array" ref="H39">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B39,C39),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H39" s="9" t="str">
-        <f t="array" ref="H39">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B39,C39),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I39" s="9" t="str">
-        <f t="array" ref="I39">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I39">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B39,C39),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J39" s="9" t="str">
-        <f t="array" ref="J39">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K39" s="12" t="str">
-        <f t="array" ref="K39">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J39">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K39" s="9" t="str">
+        <f t="array" ref="K39">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L39" s="12" t="str">
+        <f t="array" ref="L39">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
         <v>11.069000000000001</v>
       </c>
@@ -3814,36 +3969,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E40" s="9" t="str">
-        <f t="array" ref="E40">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B40,C40),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E40" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F40" s="9" t="str">
-        <f t="array" ref="F40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F40">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B40,C40),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G40" s="9" t="str">
-        <f t="array" ref="G40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G40">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B40,C40),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H40" s="9" t="str">
+        <f t="array" ref="H40">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B40,C40),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H40" s="9" t="str">
-        <f t="array" ref="H40">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B40,C40),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I40" s="9" t="str">
-        <f t="array" ref="I40">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I40">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B40,C40),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J40" s="9" t="str">
-        <f t="array" ref="J40">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K40" s="12" t="str">
-        <f t="array" ref="K40">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J40">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K40" s="9" t="str">
+        <f t="array" ref="K40">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L40" s="12" t="str">
+        <f t="array" ref="L40">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
         <v>11.2</v>
       </c>
@@ -3854,36 +4013,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E41" s="9" t="str">
-        <f t="array" ref="E41">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B41,C41),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E41" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F41" s="9" t="str">
-        <f t="array" ref="F41">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B41,C41),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F41">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B41,C41),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G41" s="9" t="str">
-        <f t="array" ref="G41">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G41">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B41,C41),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H41" s="9" t="str">
+        <f t="array" ref="H41">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B41,C41),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H41" s="9" t="str">
-        <f t="array" ref="H41">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B41,C41),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I41" s="9" t="str">
-        <f t="array" ref="I41">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B41,C41),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I41">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B41,C41),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="J41" s="9" t="str">
+        <f t="array" ref="J41">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B41,C41),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
         <v>+II</v>
       </c>
-      <c r="J41" s="9" t="str">
-        <f t="array" ref="J41">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B41,C41),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+      <c r="K41" s="9" t="str">
+        <f t="array" ref="K41">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B41,C41),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
         <v>+I</v>
       </c>
-      <c r="K41" s="12" t="str">
-        <f t="array" ref="K41">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B41,C41),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+      <c r="L41" s="12" t="str">
+        <f t="array" ref="L41">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B41,C41),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
         <v>+0</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
         <v>11.21</v>
       </c>
@@ -3894,36 +4057,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E42" s="9" t="str">
-        <f t="array" ref="E42">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B42,C42),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E42" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F42" s="9" t="str">
-        <f t="array" ref="F42">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B42,C42),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F42">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B42,C42),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G42" s="9" t="str">
-        <f t="array" ref="G42">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G42">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B42,C42),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H42" s="9" t="str">
+        <f t="array" ref="H42">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B42,C42),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H42" s="9" t="str">
-        <f t="array" ref="H42">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B42,C42),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I42" s="9" t="str">
-        <f t="array" ref="I42">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B42,C42),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I42">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B42,C42),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J42" s="9" t="str">
-        <f t="array" ref="J42">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B42,C42),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K42" s="12" t="str">
-        <f t="array" ref="K42">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B42,C42),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J42">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B42,C42),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K42" s="9" t="str">
+        <f t="array" ref="K42">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B42,C42),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L42" s="12" t="str">
+        <f t="array" ref="L42">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B42,C42),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
         <v>11.383799999999999</v>
       </c>
@@ -3934,36 +4101,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E43" s="9" t="str">
-        <f t="array" ref="E43">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B43,C43),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E43" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F43" s="9" t="str">
-        <f t="array" ref="F43">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B43,C43),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F43">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B43,C43),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G43" s="9" t="str">
-        <f t="array" ref="G43">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G43">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B43,C43),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H43" s="9" t="str">
+        <f t="array" ref="H43">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B43,C43),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H43" s="9" t="str">
-        <f t="array" ref="H43">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B43,C43),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I43" s="9" t="str">
-        <f t="array" ref="I43">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B43,C43),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I43">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B43,C43),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J43" s="9" t="str">
-        <f t="array" ref="J43">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B43,C43),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K43" s="12" t="str">
-        <f t="array" ref="K43">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B43,C43),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J43">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B43,C43),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K43" s="9" t="str">
+        <f t="array" ref="K43">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B43,C43),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L43" s="12" t="str">
+        <f t="array" ref="L43">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B43,C43),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
         <v>11.8</v>
       </c>
@@ -3974,36 +4145,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E44" s="9" t="str">
-        <f t="array" ref="E44">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B44,C44),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E44" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F44" s="9" t="str">
-        <f t="array" ref="F44">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B44,C44),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F44">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B44,C44),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G44" s="9" t="str">
-        <f t="array" ref="G44">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G44">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B44,C44),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H44" s="9" t="str">
+        <f t="array" ref="H44">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B44,C44),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H44" s="9" t="str">
-        <f t="array" ref="H44">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B44,C44),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I44" s="9" t="str">
-        <f t="array" ref="I44">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B44,C44),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I44">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B44,C44),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J44" s="9" t="str">
-        <f t="array" ref="J44">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B44,C44),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K44" s="12" t="str">
-        <f t="array" ref="K44">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B44,C44),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J44">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B44,C44),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K44" s="9" t="str">
+        <f t="array" ref="K44">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B44,C44),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L44" s="12" t="str">
+        <f t="array" ref="L44">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B44,C44),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <v>12.009</v>
       </c>
@@ -4014,36 +4189,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E45" s="9" t="str">
-        <f t="array" ref="E45">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B45,C45),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E45" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F45" s="9" t="str">
-        <f t="array" ref="F45">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B45,C45),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F45">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B45,C45),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G45" s="9" t="str">
-        <f t="array" ref="G45">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G45">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B45,C45),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H45" s="9" t="str">
+        <f t="array" ref="H45">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B45,C45),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H45" s="9" t="str">
-        <f t="array" ref="H45">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B45,C45),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I45" s="9" t="str">
-        <f t="array" ref="I45">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B45,C45),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I45">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B45,C45),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J45" s="9" t="str">
-        <f t="array" ref="J45">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B45,C45),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K45" s="12" t="str">
-        <f t="array" ref="K45">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B45,C45),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J45">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B45,C45),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K45" s="9" t="str">
+        <f t="array" ref="K45">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B45,C45),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L45" s="12" t="str">
+        <f t="array" ref="L45">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B45,C45),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="8">
         <v>12.3819</v>
       </c>
@@ -4054,36 +4233,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E46" s="9" t="str">
-        <f t="array" ref="E46">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B46,C46),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E46" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F46" s="9" t="str">
-        <f t="array" ref="F46">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B46,C46),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F46">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B46,C46),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G46" s="9" t="str">
-        <f t="array" ref="G46">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G46">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B46,C46),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H46" s="9" t="str">
+        <f t="array" ref="H46">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B46,C46),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H46" s="9" t="str">
-        <f t="array" ref="H46">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B46,C46),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I46" s="9" t="str">
-        <f t="array" ref="I46">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B46,C46),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I46">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B46,C46),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J46" s="9" t="str">
-        <f t="array" ref="J46">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B46,C46),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K46" s="12" t="str">
-        <f t="array" ref="K46">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B46,C46),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J46">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B46,C46),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K46" s="9" t="str">
+        <f t="array" ref="K46">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B46,C46),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L46" s="12" t="str">
+        <f t="array" ref="L46">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B46,C46),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8">
         <v>13.311999999999999</v>
       </c>
@@ -4094,36 +4277,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E47" s="9" t="str">
-        <f t="array" ref="E47">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B47,C47),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E47" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F47" s="9" t="str">
-        <f t="array" ref="F47">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B47,C47),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F47">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B47,C47),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G47" s="9" t="str">
-        <f t="array" ref="G47">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G47">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B47,C47),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H47" s="9" t="str">
+        <f t="array" ref="H47">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B47,C47),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H47" s="9" t="str">
-        <f t="array" ref="H47">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B47,C47),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I47" s="9" t="str">
-        <f t="array" ref="I47">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B47,C47),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I47">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B47,C47),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J47" s="9" t="str">
-        <f t="array" ref="J47">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B47,C47),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K47" s="12" t="str">
-        <f t="array" ref="K47">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B47,C47),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J47">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B47,C47),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K47" s="9" t="str">
+        <f t="array" ref="K47">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B47,C47),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L47" s="12" t="str">
+        <f t="array" ref="L47">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B47,C47),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="8">
         <v>13.7217</v>
       </c>
@@ -4134,36 +4321,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E48" s="9" t="str">
-        <f t="array" ref="E48">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B48,C48),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E48" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F48" s="9" t="str">
-        <f t="array" ref="F48">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B48,C48),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F48">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B48,C48),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G48" s="9" t="str">
-        <f t="array" ref="G48">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G48">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B48,C48),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H48" s="9" t="str">
+        <f t="array" ref="H48">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B48,C48),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H48" s="9" t="str">
-        <f t="array" ref="H48">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B48,C48),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I48" s="9" t="str">
-        <f t="array" ref="I48">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B48,C48),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I48">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B48,C48),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J48" s="9" t="str">
-        <f t="array" ref="J48">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B48,C48),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K48" s="12" t="str">
-        <f t="array" ref="K48">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B48,C48),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J48">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B48,C48),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K48" s="9" t="str">
+        <f t="array" ref="K48">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B48,C48),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L48" s="12" t="str">
+        <f t="array" ref="L48">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B48,C48),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="8">
         <v>13.815</v>
       </c>
@@ -4174,36 +4365,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E49" s="9" t="str">
-        <f t="array" ref="E49">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B49,C49),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E49" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F49" s="9" t="str">
-        <f t="array" ref="F49">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B49,C49),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F49">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B49,C49),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G49" s="9" t="str">
-        <f t="array" ref="G49">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G49">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B49,C49),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H49" s="9" t="str">
+        <f t="array" ref="H49">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B49,C49),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H49" s="9" t="str">
-        <f t="array" ref="H49">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B49,C49),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I49" s="9" t="str">
-        <f t="array" ref="I49">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B49,C49),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I49">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B49,C49),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J49" s="9" t="str">
-        <f t="array" ref="J49">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B49,C49),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K49" s="12" t="str">
-        <f t="array" ref="K49">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B49,C49),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J49">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B49,C49),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K49" s="9" t="str">
+        <f t="array" ref="K49">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B49,C49),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L49" s="12" t="str">
+        <f t="array" ref="L49">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B49,C49),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="8">
         <v>14.618799999999998</v>
       </c>
@@ -4214,36 +4409,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E50" s="9" t="str">
-        <f t="array" ref="E50">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B50,C50),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E50" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F50" s="9" t="str">
-        <f t="array" ref="F50">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B50,C50),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F50">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B50,C50),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G50" s="9" t="str">
-        <f t="array" ref="G50">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G50">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B50,C50),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H50" s="9" t="str">
+        <f t="array" ref="H50">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B50,C50),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H50" s="9" t="str">
-        <f t="array" ref="H50">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B50,C50),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I50" s="9" t="str">
-        <f t="array" ref="I50">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B50,C50),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I50">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B50,C50),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J50" s="9" t="str">
-        <f t="array" ref="J50">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B50,C50),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K50" s="12" t="str">
-        <f t="array" ref="K50">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B50,C50),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J50">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B50,C50),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K50" s="9" t="str">
+        <f t="array" ref="K50">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B50,C50),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L50" s="12" t="str">
+        <f t="array" ref="L50">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B50,C50),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="8">
         <v>14.815</v>
       </c>
@@ -4254,36 +4453,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E51" s="9" t="str">
-        <f t="array" ref="E51">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B51,C51),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E51" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F51" s="9" t="str">
-        <f t="array" ref="F51">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B51,C51),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F51">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B51,C51),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G51" s="9" t="str">
-        <f t="array" ref="G51">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G51">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B51,C51),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H51" s="9" t="str">
+        <f t="array" ref="H51">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B51,C51),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H51" s="9" t="str">
-        <f t="array" ref="H51">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B51,C51),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I51" s="9" t="str">
-        <f t="array" ref="I51">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B51,C51),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I51">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B51,C51),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J51" s="9" t="str">
-        <f t="array" ref="J51">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B51,C51),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K51" s="12" t="str">
-        <f t="array" ref="K51">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B51,C51),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J51">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B51,C51),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K51" s="9" t="str">
+        <f t="array" ref="K51">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B51,C51),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L51" s="12" t="str">
+        <f t="array" ref="L51">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B51,C51),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="8">
         <v>15.411700000000002</v>
       </c>
@@ -4294,36 +4497,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E52" s="9" t="str">
-        <f t="array" ref="E52">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B52,C52),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E52" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F52" s="9" t="str">
-        <f t="array" ref="F52">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B52,C52),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F52">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B52,C52),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G52" s="9" t="str">
-        <f t="array" ref="G52">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G52">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B52,C52),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H52" s="9" t="str">
+        <f t="array" ref="H52">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B52,C52),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-II</v>
       </c>
-      <c r="H52" s="9" t="str">
-        <f t="array" ref="H52">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B52,C52),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I52" s="9" t="str">
-        <f t="array" ref="I52">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B52,C52),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I52">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B52,C52),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J52" s="9" t="str">
-        <f t="array" ref="J52">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B52,C52),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K52" s="12" t="str">
-        <f t="array" ref="K52">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B52,C52),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J52">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B52,C52),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K52" s="9" t="str">
+        <f t="array" ref="K52">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B52,C52),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L52" s="12" t="str">
+        <f t="array" ref="L52">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B52,C52),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="8">
         <v>15.917999999999999</v>
       </c>
@@ -4334,36 +4541,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E53" s="9" t="str">
-        <f t="array" ref="E53">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B53,C53),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E53" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-III</v>
+      </c>
+      <c r="F53" s="9" t="str">
+        <f t="array" ref="F53">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B53,C53),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-II</v>
       </c>
-      <c r="F53" s="9" t="str">
-        <f t="array" ref="F53">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B53,C53),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-III</v>
-      </c>
       <c r="G53" s="9" t="str">
-        <f t="array" ref="G53">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G53">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B53,C53),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H53" s="9" t="str">
+        <f t="array" ref="H53">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B53,C53),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-II</v>
       </c>
-      <c r="H53" s="9" t="str">
-        <f t="array" ref="H53">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B53,C53),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I53" s="9" t="str">
-        <f t="array" ref="I53">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B53,C53),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I53">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B53,C53),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J53" s="9" t="str">
-        <f t="array" ref="J53">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B53,C53),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K53" s="12" t="str">
-        <f t="array" ref="K53">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B53,C53),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J53">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B53,C53),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K53" s="9" t="str">
+        <f t="array" ref="K53">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B53,C53),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L53" s="12" t="str">
+        <f t="array" ref="L53">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B53,C53),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="8">
         <v>16.620999999999999</v>
       </c>
@@ -4374,36 +4585,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E54" s="9" t="str">
-        <f t="array" ref="E54">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B54,C54),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E54" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F54" s="9" t="str">
-        <f t="array" ref="F54">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B54,C54),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F54">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B54,C54),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G54" s="9" t="str">
-        <f t="array" ref="G54">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G54">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B54,C54),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H54" s="9" t="str">
+        <f t="array" ref="H54">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B54,C54),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-II</v>
       </c>
-      <c r="H54" s="9" t="str">
-        <f t="array" ref="H54">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B54,C54),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I54" s="9" t="str">
-        <f t="array" ref="I54">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B54,C54),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I54">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B54,C54),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J54" s="9" t="str">
-        <f t="array" ref="J54">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B54,C54),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K54" s="12" t="str">
-        <f t="array" ref="K54">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B54,C54),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J54">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B54,C54),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K54" s="9" t="str">
+        <f t="array" ref="K54">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B54,C54),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L54" s="12" t="str">
+        <f t="array" ref="L54">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B54,C54),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="8">
         <v>16.654199999999999</v>
       </c>
@@ -4414,36 +4629,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E55" s="9" t="str">
-        <f t="array" ref="E55">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B55,C55),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E55" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F55" s="9" t="str">
-        <f t="array" ref="F55">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B55,C55),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F55">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B55,C55),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G55" s="9" t="str">
-        <f t="array" ref="G55">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G55">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B55,C55),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H55" s="9" t="str">
+        <f t="array" ref="H55">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B55,C55),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H55" s="9" t="str">
-        <f t="array" ref="H55">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B55,C55),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I55" s="9" t="str">
-        <f t="array" ref="I55">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B55,C55),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I55">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B55,C55),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J55" s="9" t="str">
-        <f t="array" ref="J55">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B55,C55),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K55" s="12" t="str">
-        <f t="array" ref="K55">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B55,C55),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J55">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B55,C55),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K55" s="9" t="str">
+        <f t="array" ref="K55">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B55,C55),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L55" s="12" t="str">
+        <f t="array" ref="L55">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B55,C55),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="8">
         <v>16.792099999999998</v>
       </c>
@@ -4454,36 +4673,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E56" s="9" t="str">
-        <f t="array" ref="E56">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B56,C56),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E56" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F56" s="9" t="str">
-        <f t="array" ref="F56">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B56,C56),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F56">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B56,C56),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G56" s="9" t="str">
-        <f t="array" ref="G56">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G56">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B56,C56),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H56" s="9" t="str">
+        <f t="array" ref="H56">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B56,C56),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H56" s="9" t="str">
-        <f t="array" ref="H56">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B56,C56),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I56" s="9" t="str">
-        <f t="array" ref="I56">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B56,C56),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I56">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B56,C56),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J56" s="9" t="str">
-        <f t="array" ref="J56">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B56,C56),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K56" s="12" t="str">
-        <f t="array" ref="K56">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B56,C56),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J56">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B56,C56),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K56" s="9" t="str">
+        <f t="array" ref="K56">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B56,C56),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L56" s="12" t="str">
+        <f t="array" ref="L56">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B56,C56),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="8">
         <v>17.53</v>
       </c>
@@ -4494,36 +4717,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E57" s="9" t="str">
-        <f t="array" ref="E57">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B57,C57),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E57" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F57" s="9" t="str">
-        <f t="array" ref="F57">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B57,C57),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F57">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B57,C57),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G57" s="9" t="str">
-        <f t="array" ref="G57">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G57">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B57,C57),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H57" s="9" t="str">
+        <f t="array" ref="H57">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B57,C57),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H57" s="9" t="str">
-        <f t="array" ref="H57">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B57,C57),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I57" s="9" t="str">
-        <f t="array" ref="I57">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B57,C57),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I57">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B57,C57),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J57" s="9" t="str">
-        <f t="array" ref="J57">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B57,C57),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K57" s="12" t="str">
-        <f t="array" ref="K57">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B57,C57),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J57">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B57,C57),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K57" s="9" t="str">
+        <f t="array" ref="K57">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B57,C57),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L57" s="12" t="str">
+        <f t="array" ref="L57">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B57,C57),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="8">
         <v>17.875299999999999</v>
       </c>
@@ -4534,36 +4761,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E58" s="9" t="str">
-        <f t="array" ref="E58">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B58,C58),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E58" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F58" s="9" t="str">
-        <f t="array" ref="F58">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B58,C58),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F58">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B58,C58),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G58" s="9" t="str">
-        <f t="array" ref="G58">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G58">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B58,C58),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H58" s="9" t="str">
+        <f t="array" ref="H58">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B58,C58),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H58" s="9" t="str">
-        <f t="array" ref="H58">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B58,C58),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I58" s="9" t="str">
-        <f t="array" ref="I58">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B58,C58),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I58">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B58,C58),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J58" s="9" t="str">
-        <f t="array" ref="J58">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B58,C58),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K58" s="12" t="str">
-        <f t="array" ref="K58">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B58,C58),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J58">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B58,C58),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K58" s="9" t="str">
+        <f t="array" ref="K58">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B58,C58),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L58" s="12" t="str">
+        <f t="array" ref="L58">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B58,C58),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" s="8">
         <v>18.2</v>
       </c>
@@ -4574,36 +4805,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E59" s="9" t="str">
-        <f t="array" ref="E59">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B59,C59),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E59" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F59" s="9" t="str">
-        <f t="array" ref="F59">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B59,C59),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F59">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B59,C59),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G59" s="9" t="str">
-        <f t="array" ref="G59">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G59">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B59,C59),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H59" s="9" t="str">
+        <f t="array" ref="H59">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B59,C59),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H59" s="9" t="str">
-        <f t="array" ref="H59">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B59,C59),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I59" s="9" t="str">
-        <f t="array" ref="I59">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B59,C59),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I59">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B59,C59),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J59" s="9" t="str">
-        <f t="array" ref="J59">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B59,C59),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K59" s="12" t="str">
-        <f t="array" ref="K59">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B59,C59),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J59">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B59,C59),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K59" s="9" t="str">
+        <f t="array" ref="K59">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B59,C59),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L59" s="12" t="str">
+        <f t="array" ref="L59">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B59,C59),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" s="8">
         <v>18.428999999999998</v>
       </c>
@@ -4614,36 +4849,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E60" s="9" t="str">
-        <f t="array" ref="E60">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B60,C60),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E60" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F60" s="9" t="str">
-        <f t="array" ref="F60">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B60,C60),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F60">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B60,C60),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G60" s="9" t="str">
-        <f t="array" ref="G60">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G60">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B60,C60),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H60" s="9" t="str">
+        <f t="array" ref="H60">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B60,C60),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H60" s="9" t="str">
-        <f t="array" ref="H60">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B60,C60),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I60" s="9" t="str">
-        <f t="array" ref="I60">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B60,C60),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I60">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B60,C60),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J60" s="9" t="str">
-        <f t="array" ref="J60">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B60,C60),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K60" s="12" t="str">
-        <f t="array" ref="K60">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B60,C60),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J60">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B60,C60),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K60" s="9" t="str">
+        <f t="array" ref="K60">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B60,C60),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L60" s="12" t="str">
+        <f t="array" ref="L60">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B60,C60),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" s="8">
         <v>18.815099999999997</v>
       </c>
@@ -4654,36 +4893,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E61" s="9" t="str">
-        <f t="array" ref="E61">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B61,C61),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E61" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F61" s="9" t="str">
-        <f t="array" ref="F61">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B61,C61),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F61">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B61,C61),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G61" s="9" t="str">
-        <f t="array" ref="G61">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G61">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B61,C61),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H61" s="9" t="str">
+        <f t="array" ref="H61">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B61,C61),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H61" s="9" t="str">
-        <f t="array" ref="H61">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B61,C61),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I61" s="9" t="str">
-        <f t="array" ref="I61">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B61,C61),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I61">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B61,C61),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J61" s="9" t="str">
-        <f t="array" ref="J61">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B61,C61),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K61" s="12" t="str">
-        <f t="array" ref="K61">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B61,C61),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J61">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B61,C61),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K61" s="9" t="str">
+        <f t="array" ref="K61">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B61,C61),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L61" s="12" t="str">
+        <f t="array" ref="L61">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B61,C61),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
         <v>18.841000000000001</v>
       </c>
@@ -4694,36 +4937,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E62" s="9" t="str">
-        <f t="array" ref="E62">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B62,C62),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E62" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F62" s="9" t="str">
-        <f t="array" ref="F62">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B62,C62),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F62">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B62,C62),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G62" s="9" t="str">
-        <f t="array" ref="G62">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G62">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B62,C62),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H62" s="9" t="str">
+        <f t="array" ref="H62">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B62,C62),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H62" s="9" t="str">
-        <f t="array" ref="H62">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B62,C62),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I62" s="9" t="str">
-        <f t="array" ref="I62">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B62,C62),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I62">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B62,C62),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J62" s="9" t="str">
-        <f t="array" ref="J62">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B62,C62),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K62" s="12" t="str">
-        <f t="array" ref="K62">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B62,C62),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J62">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B62,C62),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K62" s="9" t="str">
+        <f t="array" ref="K62">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B62,C62),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L62" s="12" t="str">
+        <f t="array" ref="L62">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B62,C62),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" s="8">
         <v>19.217200000000002</v>
       </c>
@@ -4734,36 +4981,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E63" s="9" t="str">
-        <f t="array" ref="E63">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B63,C63),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E63" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F63" s="9" t="str">
-        <f t="array" ref="F63">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B63,C63),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F63">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B63,C63),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G63" s="9" t="str">
-        <f t="array" ref="G63">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G63">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B63,C63),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H63" s="9" t="str">
+        <f t="array" ref="H63">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B63,C63),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H63" s="9" t="str">
-        <f t="array" ref="H63">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B63,C63),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I63" s="9" t="str">
-        <f t="array" ref="I63">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B63,C63),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I63">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B63,C63),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J63" s="9" t="str">
-        <f t="array" ref="J63">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B63,C63),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K63" s="12" t="str">
-        <f t="array" ref="K63">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B63,C63),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J63">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B63,C63),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K63" s="9" t="str">
+        <f t="array" ref="K63">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B63,C63),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L63" s="12" t="str">
+        <f t="array" ref="L63">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B63,C63),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" s="8">
         <v>19.25</v>
       </c>
@@ -4774,36 +5025,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E64" s="9" t="str">
-        <f t="array" ref="E64">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B64,C64),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E64" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F64" s="9" t="str">
-        <f t="array" ref="F64">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B64,C64),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F64">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B64,C64),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G64" s="9" t="str">
-        <f t="array" ref="G64">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G64">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B64,C64),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H64" s="9" t="str">
+        <f t="array" ref="H64">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B64,C64),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H64" s="9" t="str">
-        <f t="array" ref="H64">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B64,C64),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I64" s="9" t="str">
-        <f t="array" ref="I64">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B64,C64),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I64">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B64,C64),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J64" s="9" t="str">
-        <f t="array" ref="J64">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B64,C64),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K64" s="12" t="str">
-        <f t="array" ref="K64">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B64,C64),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J64">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B64,C64),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K64" s="9" t="str">
+        <f t="array" ref="K64">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B64,C64),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L64" s="12" t="str">
+        <f t="array" ref="L64">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B64,C64),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" s="8">
         <v>19.761599999999998</v>
       </c>
@@ -4814,36 +5069,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E65" s="9" t="str">
-        <f t="array" ref="E65">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B65,C65),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E65" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F65" s="9" t="str">
-        <f t="array" ref="F65">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B65,C65),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F65">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B65,C65),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G65" s="9" t="str">
-        <f t="array" ref="G65">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G65">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B65,C65),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H65" s="9" t="str">
+        <f t="array" ref="H65">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B65,C65),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H65" s="9" t="str">
-        <f t="array" ref="H65">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B65,C65),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I65" s="9" t="str">
-        <f t="array" ref="I65">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B65,C65),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I65">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B65,C65),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J65" s="9" t="str">
-        <f t="array" ref="J65">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B65,C65),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K65" s="12" t="str">
-        <f t="array" ref="K65">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B65,C65),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J65">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B65,C65),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K65" s="9" t="str">
+        <f t="array" ref="K65">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B65,C65),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L65" s="12" t="str">
+        <f t="array" ref="L65">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B65,C65),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" s="8">
         <v>20.268999999999998</v>
       </c>
@@ -4854,36 +5113,40 @@
         <f t="shared" si="0"/>
         <v>-III</v>
       </c>
-      <c r="E66" s="9" t="str">
-        <f t="array" ref="E66">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B66,C66),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+      <c r="E66" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-III</v>
       </c>
       <c r="F66" s="9" t="str">
-        <f t="array" ref="F66">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B66,C66),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F66">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B66,C66),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G66" s="9" t="str">
-        <f t="array" ref="G66">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G66">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B66,C66),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H66" s="9" t="str">
+        <f t="array" ref="H66">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B66,C66),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
-      <c r="H66" s="9" t="str">
-        <f t="array" ref="H66">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B66,C66),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I66" s="9" t="str">
-        <f t="array" ref="I66">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B66,C66),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I66">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B66,C66),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J66" s="9" t="str">
-        <f t="array" ref="J66">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B66,C66),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K66" s="12" t="str">
-        <f t="array" ref="K66">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B66,C66),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J66">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B66,C66),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K66" s="9" t="str">
+        <f t="array" ref="K66">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B66,C66),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L66" s="12" t="str">
+        <f t="array" ref="L66">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B66,C66),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" s="8">
         <v>20.358799999999999</v>
       </c>
@@ -4891,39 +5154,43 @@
         <v>20.5168</v>
       </c>
       <c r="D67" s="23" t="str">
-        <f t="shared" ref="D67:D68" si="1">IF(COUNTIF(E67:K67,"D")&gt;0,"D",IF(COUNTIF(E67:K67,"-III")&gt;0,"-III",IF(COUNTIF(E67:K67,"-II")&gt;0,"-II",IF(COUNTIF(E67:K67,"-I")&gt;0,"-I",IF(COUNTIF(E67:K67,"+0")&gt;0,"+0",IF(COUNTIF(E67:K67,"+I")&gt;0,"+I",IF(COUNTIF(E67:K67,"+II")&gt;0,"+II",IF(COUNTIF(E67:K67,"+III")&gt;0,"+III","ND"))))))))</f>
-        <v>-III</v>
-      </c>
-      <c r="E67" s="9" t="str">
-        <f t="array" ref="E67">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B67,C67),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <f t="shared" ref="D67:D68" si="2">IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND"))))))))</f>
+        <v>-III</v>
+      </c>
+      <c r="E67" s="23" t="str">
+        <f t="shared" ref="E67:E68" si="3">IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND")))))))</f>
         <v>-III</v>
       </c>
       <c r="F67" s="9" t="str">
-        <f t="array" ref="F67">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B67,C67),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F67">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B67,C67),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G67" s="9" t="str">
-        <f t="array" ref="G67">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G67">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B67,C67),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H67" s="9" t="str">
+        <f t="array" ref="H67">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B67,C67),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H67" s="9" t="str">
-        <f t="array" ref="H67">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B67,C67),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I67" s="9" t="str">
-        <f t="array" ref="I67">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B67,C67),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I67">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B67,C67),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J67" s="9" t="str">
-        <f t="array" ref="J67">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B67,C67),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K67" s="12" t="str">
-        <f t="array" ref="K67">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B67,C67),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J67">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B67,C67),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K67" s="9" t="str">
+        <f t="array" ref="K67">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B67,C67),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L67" s="12" t="str">
+        <f t="array" ref="L67">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B67,C67),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" s="8">
         <v>20.5168</v>
       </c>
@@ -4931,127 +5198,137 @@
         <v>21.02</v>
       </c>
       <c r="D68" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>-III</v>
-      </c>
-      <c r="E68" s="9" t="str">
-        <f t="array" ref="E68">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B68,C68),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
+        <f t="shared" si="2"/>
+        <v>-III</v>
+      </c>
+      <c r="E68" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>-III</v>
       </c>
       <c r="F68" s="9" t="str">
-        <f t="array" ref="F68">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B68,C68),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F68">INDEX(STPH!$O$11:$O$34,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$34&gt;AVERAGE(B68,C68),STPH!$D$11:$D$34)),STPH!$D$11:$D$34),1))</f>
         <v>-III</v>
       </c>
       <c r="G68" s="9" t="str">
-        <f t="array" ref="G68">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G68">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B68,C68),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <v>-III</v>
+      </c>
+      <c r="H68" s="9" t="str">
+        <f t="array" ref="H68">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B68,C68),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>+0</v>
       </c>
-      <c r="H68" s="9" t="str">
-        <f t="array" ref="H68">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B68,C68),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
-      </c>
       <c r="I68" s="9" t="str">
-        <f t="array" ref="I68">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B68,C68),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <f t="array" ref="I68">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B68,C68),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J68" s="9" t="str">
-        <f t="array" ref="J68">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B68,C68),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
-      </c>
-      <c r="K68" s="12" t="str">
-        <f t="array" ref="K68">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B68,C68),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J68">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B68,C68),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="K68" s="9" t="str">
+        <f t="array" ref="K68">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B68,C68),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
+        <v>+III</v>
+      </c>
+      <c r="L68" s="12" t="str">
+        <f t="array" ref="L68">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B68,C68),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
+        <v>+III</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="8"/>
       <c r="C69" s="9"/>
       <c r="D69" s="23"/>
-      <c r="E69" s="9"/>
+      <c r="E69" s="23"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-      <c r="K69" s="12"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K69" s="9"/>
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="8"/>
       <c r="C70" s="9"/>
       <c r="D70" s="23"/>
-      <c r="E70" s="9"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="12"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K70" s="9"/>
+      <c r="L70" s="12"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="8"/>
       <c r="C71" s="9"/>
       <c r="D71" s="23"/>
-      <c r="E71" s="9"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="12"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K71" s="9"/>
+      <c r="L71" s="12"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="8"/>
       <c r="C72" s="9"/>
       <c r="D72" s="23"/>
-      <c r="E72" s="9"/>
+      <c r="E72" s="23"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="12"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K72" s="9"/>
+      <c r="L72" s="12"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
       <c r="C73" s="9"/>
       <c r="D73" s="23"/>
-      <c r="E73" s="9"/>
+      <c r="E73" s="23"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-      <c r="K73" s="12"/>
-    </row>
-    <row r="74" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K73" s="9"/>
+      <c r="L73" s="12"/>
+    </row>
+    <row r="74" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="13"/>
       <c r="C74" s="14"/>
       <c r="D74" s="24"/>
-      <c r="E74" s="14"/>
+      <c r="E74" s="24"/>
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
-      <c r="K74" s="17"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="14"/>
+      <c r="L74" s="17"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C76" s="9"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C77" s="9"/>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C78" s="9"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C79" s="9"/>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C80" s="9"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
@@ -5118,7 +5395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 36-2.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 36-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2826187A-0A5C-4FE7-B467-A9CA1B90D138}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9745E3CE-0579-4194-AE21-2F115A061728}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
@@ -2285,7 +2285,7 @@
   <dimension ref="B1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E68" sqref="E3:E68"/>
+      <selection activeCell="D3" sqref="D3:E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,11 +2338,11 @@
         <v>0.4</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D66" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f>IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f t="shared" ref="E3:E66" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
+        <f>IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F3" s="4" t="str">
@@ -2359,19 +2359,19 @@
       </c>
       <c r="I3" s="4" t="str">
         <f t="array" ref="I3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J3" s="4" t="str">
         <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K3" s="4" t="str">
         <f t="array" ref="K3">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L3" s="7" t="str">
         <f t="array" ref="L3">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -2382,11 +2382,11 @@
         <v>0.41</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F4:L4,"D")&gt;0,"D",IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E4" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F4" s="9" t="str">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="I4" s="9" t="str">
         <f t="array" ref="I4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J4" s="9" t="str">
         <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
@@ -2426,11 +2426,11 @@
         <v>0.66920000000000002</v>
       </c>
       <c r="D5" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F5:L5,"D")&gt;0,"D",IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E5" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F5:L5,"-III")&gt;0,"-III",IF(COUNTIF(F5:L5,"-II")&gt;0,"-II",IF(COUNTIF(F5:L5,"-I")&gt;0,"-I",IF(COUNTIF(F5:L5,"+0")&gt;0,"+0",IF(COUNTIF(F5:L5,"+I")&gt;0,"+I",IF(COUNTIF(F5:L5,"+II")&gt;0,"+II",IF(COUNTIF(F5:L5,"+III")&gt;0,"+III",IF(COUNTIF(F5:L5,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F5" s="9" t="str">
@@ -2447,19 +2447,19 @@
       </c>
       <c r="I5" s="9" t="str">
         <f t="array" ref="I5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J5" s="9" t="str">
         <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K5" s="9" t="str">
         <f t="array" ref="K5">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="array" ref="L5">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -2470,11 +2470,11 @@
         <v>0.78700000000000003</v>
       </c>
       <c r="D6" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F6:L6,"D")&gt;0,"D",IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E6" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F6:L6,"-III")&gt;0,"-III",IF(COUNTIF(F6:L6,"-II")&gt;0,"-II",IF(COUNTIF(F6:L6,"-I")&gt;0,"-I",IF(COUNTIF(F6:L6,"+0")&gt;0,"+0",IF(COUNTIF(F6:L6,"+I")&gt;0,"+I",IF(COUNTIF(F6:L6,"+II")&gt;0,"+II",IF(COUNTIF(F6:L6,"+III")&gt;0,"+III",IF(COUNTIF(F6:L6,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F6" s="9" t="str">
@@ -2491,19 +2491,19 @@
       </c>
       <c r="I6" s="9" t="str">
         <f t="array" ref="I6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J6" s="9" t="str">
         <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K6" s="9" t="str">
         <f t="array" ref="K6">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2514,11 +2514,11 @@
         <v>1.3822000000000001</v>
       </c>
       <c r="D7" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F7:L7,"D")&gt;0,"D",IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E7" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F7:L7,"-III")&gt;0,"-III",IF(COUNTIF(F7:L7,"-II")&gt;0,"-II",IF(COUNTIF(F7:L7,"-I")&gt;0,"-I",IF(COUNTIF(F7:L7,"+0")&gt;0,"+0",IF(COUNTIF(F7:L7,"+I")&gt;0,"+I",IF(COUNTIF(F7:L7,"+II")&gt;0,"+II",IF(COUNTIF(F7:L7,"+III")&gt;0,"+III",IF(COUNTIF(F7:L7,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F7" s="9" t="str">
@@ -2535,19 +2535,19 @@
       </c>
       <c r="I7" s="9" t="str">
         <f t="array" ref="I7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J7" s="9" t="str">
         <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K7" s="9" t="str">
         <f t="array" ref="K7">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="array" ref="L7">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2558,11 +2558,11 @@
         <v>1.4</v>
       </c>
       <c r="D8" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F8:L8,"D")&gt;0,"D",IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E8" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F8:L8,"-III")&gt;0,"-III",IF(COUNTIF(F8:L8,"-II")&gt;0,"-II",IF(COUNTIF(F8:L8,"-I")&gt;0,"-I",IF(COUNTIF(F8:L8,"+0")&gt;0,"+0",IF(COUNTIF(F8:L8,"+I")&gt;0,"+I",IF(COUNTIF(F8:L8,"+II")&gt;0,"+II",IF(COUNTIF(F8:L8,"+III")&gt;0,"+III",IF(COUNTIF(F8:L8,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F8" s="9" t="str">
@@ -2579,19 +2579,19 @@
       </c>
       <c r="I8" s="9" t="str">
         <f t="array" ref="I8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J8" s="9" t="str">
         <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K8" s="9" t="str">
         <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -2602,11 +2602,11 @@
         <v>1.41</v>
       </c>
       <c r="D9" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F9:L9,"D")&gt;0,"D",IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E9" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F9:L9,"-III")&gt;0,"-III",IF(COUNTIF(F9:L9,"-II")&gt;0,"-II",IF(COUNTIF(F9:L9,"-I")&gt;0,"-I",IF(COUNTIF(F9:L9,"+0")&gt;0,"+0",IF(COUNTIF(F9:L9,"+I")&gt;0,"+I",IF(COUNTIF(F9:L9,"+II")&gt;0,"+II",IF(COUNTIF(F9:L9,"+III")&gt;0,"+III",IF(COUNTIF(F9:L9,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F9" s="9" t="str">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="I9" s="9" t="str">
         <f t="array" ref="I9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
@@ -2646,11 +2646,11 @@
         <v>1.9330000000000001</v>
       </c>
       <c r="D10" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F10:L10,"D")&gt;0,"D",IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E10" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F10:L10,"-III")&gt;0,"-III",IF(COUNTIF(F10:L10,"-II")&gt;0,"-II",IF(COUNTIF(F10:L10,"-I")&gt;0,"-I",IF(COUNTIF(F10:L10,"+0")&gt;0,"+0",IF(COUNTIF(F10:L10,"+I")&gt;0,"+I",IF(COUNTIF(F10:L10,"+II")&gt;0,"+II",IF(COUNTIF(F10:L10,"+III")&gt;0,"+III",IF(COUNTIF(F10:L10,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F10" s="9" t="str">
@@ -2667,19 +2667,19 @@
       </c>
       <c r="I10" s="9" t="str">
         <f t="array" ref="I10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K10" s="9" t="str">
         <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -2690,11 +2690,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="D11" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F11:L11,"D")&gt;0,"D",IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E11" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F11:L11,"-III")&gt;0,"-III",IF(COUNTIF(F11:L11,"-II")&gt;0,"-II",IF(COUNTIF(F11:L11,"-I")&gt;0,"-I",IF(COUNTIF(F11:L11,"+0")&gt;0,"+0",IF(COUNTIF(F11:L11,"+I")&gt;0,"+I",IF(COUNTIF(F11:L11,"+II")&gt;0,"+II",IF(COUNTIF(F11:L11,"+III")&gt;0,"+III",IF(COUNTIF(F11:L11,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F11" s="9" t="str">
@@ -2711,19 +2711,19 @@
       </c>
       <c r="I11" s="9" t="str">
         <f t="array" ref="I11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K11" s="9" t="str">
         <f t="array" ref="K11">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="array" ref="L11">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
@@ -2734,11 +2734,11 @@
         <v>2.31</v>
       </c>
       <c r="D12" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F12:L12,"D")&gt;0,"D",IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E12" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F12:L12,"-III")&gt;0,"-III",IF(COUNTIF(F12:L12,"-II")&gt;0,"-II",IF(COUNTIF(F12:L12,"-I")&gt;0,"-I",IF(COUNTIF(F12:L12,"+0")&gt;0,"+0",IF(COUNTIF(F12:L12,"+I")&gt;0,"+I",IF(COUNTIF(F12:L12,"+II")&gt;0,"+II",IF(COUNTIF(F12:L12,"+III")&gt;0,"+III",IF(COUNTIF(F12:L12,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F12" s="9" t="str">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="I12" s="9" t="str">
         <f t="array" ref="I12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="array" ref="J12">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
@@ -2778,11 +2778,11 @@
         <v>2.9854000000000003</v>
       </c>
       <c r="D13" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F13:L13,"D")&gt;0,"D",IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E13" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F13:L13,"-III")&gt;0,"-III",IF(COUNTIF(F13:L13,"-II")&gt;0,"-II",IF(COUNTIF(F13:L13,"-I")&gt;0,"-I",IF(COUNTIF(F13:L13,"+0")&gt;0,"+0",IF(COUNTIF(F13:L13,"+I")&gt;0,"+I",IF(COUNTIF(F13:L13,"+II")&gt;0,"+II",IF(COUNTIF(F13:L13,"+III")&gt;0,"+III",IF(COUNTIF(F13:L13,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F13" s="9" t="str">
@@ -2799,19 +2799,19 @@
       </c>
       <c r="I13" s="9" t="str">
         <f t="array" ref="I13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J13" s="9" t="str">
         <f t="array" ref="J13">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K13" s="9" t="str">
         <f t="array" ref="K13">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="array" ref="L13">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -2822,11 +2822,11 @@
         <v>3.0840000000000001</v>
       </c>
       <c r="D14" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F14:L14,"D")&gt;0,"D",IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E14" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F14:L14,"-III")&gt;0,"-III",IF(COUNTIF(F14:L14,"-II")&gt;0,"-II",IF(COUNTIF(F14:L14,"-I")&gt;0,"-I",IF(COUNTIF(F14:L14,"+0")&gt;0,"+0",IF(COUNTIF(F14:L14,"+I")&gt;0,"+I",IF(COUNTIF(F14:L14,"+II")&gt;0,"+II",IF(COUNTIF(F14:L14,"+III")&gt;0,"+III",IF(COUNTIF(F14:L14,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F14" s="9" t="str">
@@ -2843,19 +2843,19 @@
       </c>
       <c r="I14" s="9" t="str">
         <f t="array" ref="I14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J14" s="9" t="str">
         <f t="array" ref="J14">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K14" s="9" t="str">
         <f t="array" ref="K14">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="array" ref="L14">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -2866,11 +2866,11 @@
         <v>3.585</v>
       </c>
       <c r="D15" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F15:L15,"D")&gt;0,"D",IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E15" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F15:L15,"-III")&gt;0,"-III",IF(COUNTIF(F15:L15,"-II")&gt;0,"-II",IF(COUNTIF(F15:L15,"-I")&gt;0,"-I",IF(COUNTIF(F15:L15,"+0")&gt;0,"+0",IF(COUNTIF(F15:L15,"+I")&gt;0,"+I",IF(COUNTIF(F15:L15,"+II")&gt;0,"+II",IF(COUNTIF(F15:L15,"+III")&gt;0,"+III",IF(COUNTIF(F15:L15,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F15" s="9" t="str">
@@ -2887,19 +2887,19 @@
       </c>
       <c r="I15" s="9" t="str">
         <f t="array" ref="I15">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B15,C15),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J15" s="9" t="str">
         <f t="array" ref="J15">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B15,C15),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K15" s="9" t="str">
         <f t="array" ref="K15">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B15,C15),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="array" ref="L15">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B15,C15),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -2910,11 +2910,11 @@
         <v>4.3879999999999999</v>
       </c>
       <c r="D16" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F16:L16,"D")&gt;0,"D",IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E16" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F16:L16,"-III")&gt;0,"-III",IF(COUNTIF(F16:L16,"-II")&gt;0,"-II",IF(COUNTIF(F16:L16,"-I")&gt;0,"-I",IF(COUNTIF(F16:L16,"+0")&gt;0,"+0",IF(COUNTIF(F16:L16,"+I")&gt;0,"+I",IF(COUNTIF(F16:L16,"+II")&gt;0,"+II",IF(COUNTIF(F16:L16,"+III")&gt;0,"+III",IF(COUNTIF(F16:L16,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F16" s="9" t="str">
@@ -2931,19 +2931,19 @@
       </c>
       <c r="I16" s="9" t="str">
         <f t="array" ref="I16">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B16,C16),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J16" s="9" t="str">
         <f t="array" ref="J16">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B16,C16),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K16" s="9" t="str">
         <f t="array" ref="K16">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B16,C16),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="array" ref="L16">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B16,C16),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
@@ -2954,11 +2954,11 @@
         <v>5.8</v>
       </c>
       <c r="D17" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F17:L17,"D")&gt;0,"D",IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E17" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F17:L17,"-III")&gt;0,"-III",IF(COUNTIF(F17:L17,"-II")&gt;0,"-II",IF(COUNTIF(F17:L17,"-I")&gt;0,"-I",IF(COUNTIF(F17:L17,"+0")&gt;0,"+0",IF(COUNTIF(F17:L17,"+I")&gt;0,"+I",IF(COUNTIF(F17:L17,"+II")&gt;0,"+II",IF(COUNTIF(F17:L17,"+III")&gt;0,"+III",IF(COUNTIF(F17:L17,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F17" s="9" t="str">
@@ -2975,19 +2975,19 @@
       </c>
       <c r="I17" s="9" t="str">
         <f t="array" ref="I17">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B17,C17),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J17" s="9" t="str">
         <f t="array" ref="J17">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B17,C17),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K17" s="9" t="str">
         <f t="array" ref="K17">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B17,C17),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="array" ref="L17">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B17,C17),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
@@ -2998,11 +2998,11 @@
         <v>5.81</v>
       </c>
       <c r="D18" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F18:L18,"D")&gt;0,"D",IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E18" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F18:L18,"-III")&gt;0,"-III",IF(COUNTIF(F18:L18,"-II")&gt;0,"-II",IF(COUNTIF(F18:L18,"-I")&gt;0,"-I",IF(COUNTIF(F18:L18,"+0")&gt;0,"+0",IF(COUNTIF(F18:L18,"+I")&gt;0,"+I",IF(COUNTIF(F18:L18,"+II")&gt;0,"+II",IF(COUNTIF(F18:L18,"+III")&gt;0,"+III",IF(COUNTIF(F18:L18,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F18" s="9" t="str">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="I18" s="9" t="str">
         <f t="array" ref="I18">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B18,C18),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J18" s="9" t="str">
         <f t="array" ref="J18">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B18,C18),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
@@ -3042,11 +3042,11 @@
         <v>6.1183999999999994</v>
       </c>
       <c r="D19" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F19:L19,"D")&gt;0,"D",IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E19" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F19:L19,"-III")&gt;0,"-III",IF(COUNTIF(F19:L19,"-II")&gt;0,"-II",IF(COUNTIF(F19:L19,"-I")&gt;0,"-I",IF(COUNTIF(F19:L19,"+0")&gt;0,"+0",IF(COUNTIF(F19:L19,"+I")&gt;0,"+I",IF(COUNTIF(F19:L19,"+II")&gt;0,"+II",IF(COUNTIF(F19:L19,"+III")&gt;0,"+III",IF(COUNTIF(F19:L19,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F19" s="9" t="str">
@@ -3063,19 +3063,19 @@
       </c>
       <c r="I19" s="9" t="str">
         <f t="array" ref="I19">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B19,C19),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J19" s="9" t="str">
         <f t="array" ref="J19">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B19,C19),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K19" s="9" t="str">
         <f t="array" ref="K19">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B19,C19),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L19" s="12" t="str">
         <f t="array" ref="L19">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B19,C19),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
@@ -3086,11 +3086,11 @@
         <v>7.1</v>
       </c>
       <c r="D20" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F20:L20,"D")&gt;0,"D",IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E20" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F20:L20,"-III")&gt;0,"-III",IF(COUNTIF(F20:L20,"-II")&gt;0,"-II",IF(COUNTIF(F20:L20,"-I")&gt;0,"-I",IF(COUNTIF(F20:L20,"+0")&gt;0,"+0",IF(COUNTIF(F20:L20,"+I")&gt;0,"+I",IF(COUNTIF(F20:L20,"+II")&gt;0,"+II",IF(COUNTIF(F20:L20,"+III")&gt;0,"+III",IF(COUNTIF(F20:L20,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F20" s="9" t="str">
@@ -3107,19 +3107,19 @@
       </c>
       <c r="I20" s="9" t="str">
         <f t="array" ref="I20">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B20,C20),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J20" s="9" t="str">
         <f t="array" ref="J20">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B20,C20),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K20" s="9" t="str">
         <f t="array" ref="K20">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B20,C20),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L20" s="12" t="str">
         <f t="array" ref="L20">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B20,C20),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -3130,11 +3130,11 @@
         <v>7.11</v>
       </c>
       <c r="D21" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F21:L21,"D")&gt;0,"D",IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E21" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F21:L21,"-III")&gt;0,"-III",IF(COUNTIF(F21:L21,"-II")&gt;0,"-II",IF(COUNTIF(F21:L21,"-I")&gt;0,"-I",IF(COUNTIF(F21:L21,"+0")&gt;0,"+0",IF(COUNTIF(F21:L21,"+I")&gt;0,"+I",IF(COUNTIF(F21:L21,"+II")&gt;0,"+II",IF(COUNTIF(F21:L21,"+III")&gt;0,"+III",IF(COUNTIF(F21:L21,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F21" s="9" t="str">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="I21" s="9" t="str">
         <f t="array" ref="I21">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B21,C21),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J21" s="9" t="str">
         <f t="array" ref="J21">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B21,C21),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
@@ -3174,11 +3174,11 @@
         <v>7.1239999999999997</v>
       </c>
       <c r="D22" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F22:L22,"D")&gt;0,"D",IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E22" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F22:L22,"-III")&gt;0,"-III",IF(COUNTIF(F22:L22,"-II")&gt;0,"-II",IF(COUNTIF(F22:L22,"-I")&gt;0,"-I",IF(COUNTIF(F22:L22,"+0")&gt;0,"+0",IF(COUNTIF(F22:L22,"+I")&gt;0,"+I",IF(COUNTIF(F22:L22,"+II")&gt;0,"+II",IF(COUNTIF(F22:L22,"+III")&gt;0,"+III",IF(COUNTIF(F22:L22,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F22" s="9" t="str">
@@ -3195,19 +3195,19 @@
       </c>
       <c r="I22" s="9" t="str">
         <f t="array" ref="I22">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B22,C22),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J22" s="9" t="str">
         <f t="array" ref="J22">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B22,C22),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K22" s="9" t="str">
         <f t="array" ref="K22">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B22,C22),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L22" s="12" t="str">
         <f t="array" ref="L22">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B22,C22),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -3218,11 +3218,11 @@
         <v>7.7080000000000002</v>
       </c>
       <c r="D23" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F23:L23,"D")&gt;0,"D",IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E23" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F23:L23,"-III")&gt;0,"-III",IF(COUNTIF(F23:L23,"-II")&gt;0,"-II",IF(COUNTIF(F23:L23,"-I")&gt;0,"-I",IF(COUNTIF(F23:L23,"+0")&gt;0,"+0",IF(COUNTIF(F23:L23,"+I")&gt;0,"+I",IF(COUNTIF(F23:L23,"+II")&gt;0,"+II",IF(COUNTIF(F23:L23,"+III")&gt;0,"+III",IF(COUNTIF(F23:L23,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F23" s="9" t="str">
@@ -3239,19 +3239,19 @@
       </c>
       <c r="I23" s="9" t="str">
         <f t="array" ref="I23">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B23,C23),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J23" s="9" t="str">
         <f t="array" ref="J23">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B23,C23),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K23" s="9" t="str">
         <f t="array" ref="K23">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B23,C23),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L23" s="12" t="str">
         <f t="array" ref="L23">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B23,C23),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -3262,11 +3262,11 @@
         <v>7.8988999999999994</v>
       </c>
       <c r="D24" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F24:L24,"D")&gt;0,"D",IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E24" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F24:L24,"-III")&gt;0,"-III",IF(COUNTIF(F24:L24,"-II")&gt;0,"-II",IF(COUNTIF(F24:L24,"-I")&gt;0,"-I",IF(COUNTIF(F24:L24,"+0")&gt;0,"+0",IF(COUNTIF(F24:L24,"+I")&gt;0,"+I",IF(COUNTIF(F24:L24,"+II")&gt;0,"+II",IF(COUNTIF(F24:L24,"+III")&gt;0,"+III",IF(COUNTIF(F24:L24,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F24" s="9" t="str">
@@ -3283,19 +3283,19 @@
       </c>
       <c r="I24" s="9" t="str">
         <f t="array" ref="I24">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B24,C24),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J24" s="9" t="str">
         <f t="array" ref="J24">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B24,C24),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K24" s="9" t="str">
         <f t="array" ref="K24">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B24,C24),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L24" s="12" t="str">
         <f t="array" ref="L24">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B24,C24),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -3306,11 +3306,11 @@
         <v>8.1180000000000003</v>
       </c>
       <c r="D25" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F25:L25,"D")&gt;0,"D",IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E25" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F25:L25,"-III")&gt;0,"-III",IF(COUNTIF(F25:L25,"-II")&gt;0,"-II",IF(COUNTIF(F25:L25,"-I")&gt;0,"-I",IF(COUNTIF(F25:L25,"+0")&gt;0,"+0",IF(COUNTIF(F25:L25,"+I")&gt;0,"+I",IF(COUNTIF(F25:L25,"+II")&gt;0,"+II",IF(COUNTIF(F25:L25,"+III")&gt;0,"+III",IF(COUNTIF(F25:L25,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F25" s="9" t="str">
@@ -3327,19 +3327,19 @@
       </c>
       <c r="I25" s="9" t="str">
         <f t="array" ref="I25">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B25,C25),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J25" s="9" t="str">
         <f t="array" ref="J25">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B25,C25),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K25" s="9" t="str">
         <f t="array" ref="K25">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B25,C25),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L25" s="12" t="str">
         <f t="array" ref="L25">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B25,C25),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -3350,11 +3350,11 @@
         <v>8.9220000000000006</v>
       </c>
       <c r="D26" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F26:L26,"D")&gt;0,"D",IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E26" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F26:L26,"-III")&gt;0,"-III",IF(COUNTIF(F26:L26,"-II")&gt;0,"-II",IF(COUNTIF(F26:L26,"-I")&gt;0,"-I",IF(COUNTIF(F26:L26,"+0")&gt;0,"+0",IF(COUNTIF(F26:L26,"+I")&gt;0,"+I",IF(COUNTIF(F26:L26,"+II")&gt;0,"+II",IF(COUNTIF(F26:L26,"+III")&gt;0,"+III",IF(COUNTIF(F26:L26,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F26" s="9" t="str">
@@ -3371,19 +3371,19 @@
       </c>
       <c r="I26" s="9" t="str">
         <f t="array" ref="I26">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B26,C26),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J26" s="9" t="str">
         <f t="array" ref="J26">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B26,C26),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K26" s="9" t="str">
         <f t="array" ref="K26">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B26,C26),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L26" s="12" t="str">
         <f t="array" ref="L26">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B26,C26),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -3394,11 +3394,11 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="D27" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F27:L27,"D")&gt;0,"D",IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E27" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F27:L27,"-III")&gt;0,"-III",IF(COUNTIF(F27:L27,"-II")&gt;0,"-II",IF(COUNTIF(F27:L27,"-I")&gt;0,"-I",IF(COUNTIF(F27:L27,"+0")&gt;0,"+0",IF(COUNTIF(F27:L27,"+I")&gt;0,"+I",IF(COUNTIF(F27:L27,"+II")&gt;0,"+II",IF(COUNTIF(F27:L27,"+III")&gt;0,"+III",IF(COUNTIF(F27:L27,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F27" s="9" t="str">
@@ -3415,19 +3415,19 @@
       </c>
       <c r="I27" s="9" t="str">
         <f t="array" ref="I27">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B27,C27),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J27" s="9" t="str">
         <f t="array" ref="J27">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B27,C27),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K27" s="9" t="str">
         <f t="array" ref="K27">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B27,C27),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L27" s="12" t="str">
         <f t="array" ref="L27">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B27,C27),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -3438,11 +3438,11 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="D28" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F28:L28,"D")&gt;0,"D",IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E28" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F28:L28,"-III")&gt;0,"-III",IF(COUNTIF(F28:L28,"-II")&gt;0,"-II",IF(COUNTIF(F28:L28,"-I")&gt;0,"-I",IF(COUNTIF(F28:L28,"+0")&gt;0,"+0",IF(COUNTIF(F28:L28,"+I")&gt;0,"+I",IF(COUNTIF(F28:L28,"+II")&gt;0,"+II",IF(COUNTIF(F28:L28,"+III")&gt;0,"+III",IF(COUNTIF(F28:L28,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F28" s="9" t="str">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="I28" s="9" t="str">
         <f t="array" ref="I28">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B28,C28),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J28" s="9" t="str">
         <f t="array" ref="J28">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B28,C28),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
@@ -3482,11 +3482,11 @@
         <v>9.3124000000000002</v>
       </c>
       <c r="D29" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F29:L29,"D")&gt;0,"D",IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E29" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F29:L29,"-III")&gt;0,"-III",IF(COUNTIF(F29:L29,"-II")&gt;0,"-II",IF(COUNTIF(F29:L29,"-I")&gt;0,"-I",IF(COUNTIF(F29:L29,"+0")&gt;0,"+0",IF(COUNTIF(F29:L29,"+I")&gt;0,"+I",IF(COUNTIF(F29:L29,"+II")&gt;0,"+II",IF(COUNTIF(F29:L29,"+III")&gt;0,"+III",IF(COUNTIF(F29:L29,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F29" s="9" t="str">
@@ -3503,19 +3503,19 @@
       </c>
       <c r="I29" s="9" t="str">
         <f t="array" ref="I29">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B29,C29),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J29" s="9" t="str">
         <f t="array" ref="J29">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B29,C29),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K29" s="9" t="str">
         <f t="array" ref="K29">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B29,C29),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L29" s="12" t="str">
         <f t="array" ref="L29">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B29,C29),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -3526,11 +3526,11 @@
         <v>9.3160000000000007</v>
       </c>
       <c r="D30" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F30:L30,"D")&gt;0,"D",IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E30" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F30:L30,"-III")&gt;0,"-III",IF(COUNTIF(F30:L30,"-II")&gt;0,"-II",IF(COUNTIF(F30:L30,"-I")&gt;0,"-I",IF(COUNTIF(F30:L30,"+0")&gt;0,"+0",IF(COUNTIF(F30:L30,"+I")&gt;0,"+I",IF(COUNTIF(F30:L30,"+II")&gt;0,"+II",IF(COUNTIF(F30:L30,"+III")&gt;0,"+III",IF(COUNTIF(F30:L30,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F30" s="9" t="str">
@@ -3547,19 +3547,19 @@
       </c>
       <c r="I30" s="9" t="str">
         <f t="array" ref="I30">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B30,C30),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J30" s="9" t="str">
         <f t="array" ref="J30">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B30,C30),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K30" s="9" t="str">
         <f t="array" ref="K30">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B30,C30),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L30" s="12" t="str">
         <f t="array" ref="L30">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B30,C30),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -3570,11 +3570,11 @@
         <v>9.5</v>
       </c>
       <c r="D31" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F31:L31,"D")&gt;0,"D",IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E31" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F31:L31,"-III")&gt;0,"-III",IF(COUNTIF(F31:L31,"-II")&gt;0,"-II",IF(COUNTIF(F31:L31,"-I")&gt;0,"-I",IF(COUNTIF(F31:L31,"+0")&gt;0,"+0",IF(COUNTIF(F31:L31,"+I")&gt;0,"+I",IF(COUNTIF(F31:L31,"+II")&gt;0,"+II",IF(COUNTIF(F31:L31,"+III")&gt;0,"+III",IF(COUNTIF(F31:L31,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F31" s="9" t="str">
@@ -3591,19 +3591,19 @@
       </c>
       <c r="I31" s="9" t="str">
         <f t="array" ref="I31">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B31,C31),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J31" s="9" t="str">
         <f t="array" ref="J31">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B31,C31),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K31" s="9" t="str">
         <f t="array" ref="K31">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B31,C31),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L31" s="12" t="str">
         <f t="array" ref="L31">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B31,C31),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -3614,11 +3614,11 @@
         <v>9.51</v>
       </c>
       <c r="D32" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F32:L32,"D")&gt;0,"D",IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E32" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F32:L32,"-III")&gt;0,"-III",IF(COUNTIF(F32:L32,"-II")&gt;0,"-II",IF(COUNTIF(F32:L32,"-I")&gt;0,"-I",IF(COUNTIF(F32:L32,"+0")&gt;0,"+0",IF(COUNTIF(F32:L32,"+I")&gt;0,"+I",IF(COUNTIF(F32:L32,"+II")&gt;0,"+II",IF(COUNTIF(F32:L32,"+III")&gt;0,"+III",IF(COUNTIF(F32:L32,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F32" s="9" t="str">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="I32" s="9" t="str">
         <f t="array" ref="I32">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B32,C32),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J32" s="9" t="str">
         <f t="array" ref="J32">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B32,C32),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
@@ -3658,11 +3658,11 @@
         <v>9.6</v>
       </c>
       <c r="D33" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F33:L33,"D")&gt;0,"D",IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E33" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F33:L33,"-III")&gt;0,"-III",IF(COUNTIF(F33:L33,"-II")&gt;0,"-II",IF(COUNTIF(F33:L33,"-I")&gt;0,"-I",IF(COUNTIF(F33:L33,"+0")&gt;0,"+0",IF(COUNTIF(F33:L33,"+I")&gt;0,"+I",IF(COUNTIF(F33:L33,"+II")&gt;0,"+II",IF(COUNTIF(F33:L33,"+III")&gt;0,"+III",IF(COUNTIF(F33:L33,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F33" s="9" t="str">
@@ -3679,19 +3679,19 @@
       </c>
       <c r="I33" s="9" t="str">
         <f t="array" ref="I33">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B33,C33),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J33" s="9" t="str">
         <f t="array" ref="J33">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B33,C33),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K33" s="9" t="str">
         <f t="array" ref="K33">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B33,C33),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L33" s="12" t="str">
         <f t="array" ref="L33">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B33,C33),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -3702,11 +3702,11 @@
         <v>9.61</v>
       </c>
       <c r="D34" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F34:L34,"D")&gt;0,"D",IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E34" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F34:L34,"-III")&gt;0,"-III",IF(COUNTIF(F34:L34,"-II")&gt;0,"-II",IF(COUNTIF(F34:L34,"-I")&gt;0,"-I",IF(COUNTIF(F34:L34,"+0")&gt;0,"+0",IF(COUNTIF(F34:L34,"+I")&gt;0,"+I",IF(COUNTIF(F34:L34,"+II")&gt;0,"+II",IF(COUNTIF(F34:L34,"+III")&gt;0,"+III",IF(COUNTIF(F34:L34,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F34" s="9" t="str">
@@ -3723,7 +3723,7 @@
       </c>
       <c r="I34" s="9" t="str">
         <f t="array" ref="I34">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B34,C34),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J34" s="9" t="str">
         <f t="array" ref="J34">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B34,C34),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
@@ -3746,11 +3746,11 @@
         <v>10</v>
       </c>
       <c r="D35" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F35:L35,"D")&gt;0,"D",IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E35" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F35:L35,"-III")&gt;0,"-III",IF(COUNTIF(F35:L35,"-II")&gt;0,"-II",IF(COUNTIF(F35:L35,"-I")&gt;0,"-I",IF(COUNTIF(F35:L35,"+0")&gt;0,"+0",IF(COUNTIF(F35:L35,"+I")&gt;0,"+I",IF(COUNTIF(F35:L35,"+II")&gt;0,"+II",IF(COUNTIF(F35:L35,"+III")&gt;0,"+III",IF(COUNTIF(F35:L35,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F35" s="9" t="str">
@@ -3767,19 +3767,19 @@
       </c>
       <c r="I35" s="9" t="str">
         <f t="array" ref="I35">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B35,C35),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J35" s="9" t="str">
         <f t="array" ref="J35">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B35,C35),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K35" s="9" t="str">
         <f t="array" ref="K35">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B35,C35),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L35" s="12" t="str">
         <f t="array" ref="L35">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B35,C35),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -3790,11 +3790,11 @@
         <v>10.1</v>
       </c>
       <c r="D36" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F36:L36,"D")&gt;0,"D",IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E36" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F36:L36,"-III")&gt;0,"-III",IF(COUNTIF(F36:L36,"-II")&gt;0,"-II",IF(COUNTIF(F36:L36,"-I")&gt;0,"-I",IF(COUNTIF(F36:L36,"+0")&gt;0,"+0",IF(COUNTIF(F36:L36,"+I")&gt;0,"+I",IF(COUNTIF(F36:L36,"+II")&gt;0,"+II",IF(COUNTIF(F36:L36,"+III")&gt;0,"+III",IF(COUNTIF(F36:L36,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F36" s="9" t="str">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="I36" s="9" t="str">
         <f t="array" ref="I36">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B36,C36),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J36" s="9" t="str">
         <f t="array" ref="J36">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B36,C36),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
@@ -3834,11 +3834,11 @@
         <v>10.2233</v>
       </c>
       <c r="D37" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F37:L37,"D")&gt;0,"D",IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E37" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F37:L37,"-III")&gt;0,"-III",IF(COUNTIF(F37:L37,"-II")&gt;0,"-II",IF(COUNTIF(F37:L37,"-I")&gt;0,"-I",IF(COUNTIF(F37:L37,"+0")&gt;0,"+0",IF(COUNTIF(F37:L37,"+I")&gt;0,"+I",IF(COUNTIF(F37:L37,"+II")&gt;0,"+II",IF(COUNTIF(F37:L37,"+III")&gt;0,"+III",IF(COUNTIF(F37:L37,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F37" s="9" t="str">
@@ -3855,19 +3855,19 @@
       </c>
       <c r="I37" s="9" t="str">
         <f t="array" ref="I37">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B37,C37),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J37" s="9" t="str">
         <f t="array" ref="J37">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B37,C37),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K37" s="9" t="str">
         <f t="array" ref="K37">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B37,C37),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L37" s="12" t="str">
         <f t="array" ref="L37">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B37,C37),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -3878,11 +3878,11 @@
         <v>10.252000000000001</v>
       </c>
       <c r="D38" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F38:L38,"D")&gt;0,"D",IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E38" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F38:L38,"-III")&gt;0,"-III",IF(COUNTIF(F38:L38,"-II")&gt;0,"-II",IF(COUNTIF(F38:L38,"-I")&gt;0,"-I",IF(COUNTIF(F38:L38,"+0")&gt;0,"+0",IF(COUNTIF(F38:L38,"+I")&gt;0,"+I",IF(COUNTIF(F38:L38,"+II")&gt;0,"+II",IF(COUNTIF(F38:L38,"+III")&gt;0,"+III",IF(COUNTIF(F38:L38,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F38" s="9" t="str">
@@ -3899,19 +3899,19 @@
       </c>
       <c r="I38" s="9" t="str">
         <f t="array" ref="I38">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B38,C38),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J38" s="9" t="str">
         <f t="array" ref="J38">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B38,C38),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K38" s="9" t="str">
         <f t="array" ref="K38">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B38,C38),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L38" s="12" t="str">
         <f t="array" ref="L38">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B38,C38),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -3922,11 +3922,11 @@
         <v>11.069000000000001</v>
       </c>
       <c r="D39" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F39:L39,"D")&gt;0,"D",IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E39" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F39:L39,"-III")&gt;0,"-III",IF(COUNTIF(F39:L39,"-II")&gt;0,"-II",IF(COUNTIF(F39:L39,"-I")&gt;0,"-I",IF(COUNTIF(F39:L39,"+0")&gt;0,"+0",IF(COUNTIF(F39:L39,"+I")&gt;0,"+I",IF(COUNTIF(F39:L39,"+II")&gt;0,"+II",IF(COUNTIF(F39:L39,"+III")&gt;0,"+III",IF(COUNTIF(F39:L39,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F39" s="9" t="str">
@@ -3943,19 +3943,19 @@
       </c>
       <c r="I39" s="9" t="str">
         <f t="array" ref="I39">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B39,C39),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J39" s="9" t="str">
         <f t="array" ref="J39">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B39,C39),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K39" s="9" t="str">
         <f t="array" ref="K39">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B39,C39),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L39" s="12" t="str">
         <f t="array" ref="L39">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B39,C39),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -3966,11 +3966,11 @@
         <v>11.2</v>
       </c>
       <c r="D40" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F40:L40,"D")&gt;0,"D",IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E40" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F40:L40,"-III")&gt;0,"-III",IF(COUNTIF(F40:L40,"-II")&gt;0,"-II",IF(COUNTIF(F40:L40,"-I")&gt;0,"-I",IF(COUNTIF(F40:L40,"+0")&gt;0,"+0",IF(COUNTIF(F40:L40,"+I")&gt;0,"+I",IF(COUNTIF(F40:L40,"+II")&gt;0,"+II",IF(COUNTIF(F40:L40,"+III")&gt;0,"+III",IF(COUNTIF(F40:L40,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F40" s="9" t="str">
@@ -3987,19 +3987,19 @@
       </c>
       <c r="I40" s="9" t="str">
         <f t="array" ref="I40">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B40,C40),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J40" s="9" t="str">
         <f t="array" ref="J40">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B40,C40),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K40" s="9" t="str">
         <f t="array" ref="K40">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B40,C40),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L40" s="12" t="str">
         <f t="array" ref="L40">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B40,C40),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -4010,11 +4010,11 @@
         <v>11.21</v>
       </c>
       <c r="D41" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F41:L41,"D")&gt;0,"D",IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E41" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F41:L41,"-III")&gt;0,"-III",IF(COUNTIF(F41:L41,"-II")&gt;0,"-II",IF(COUNTIF(F41:L41,"-I")&gt;0,"-I",IF(COUNTIF(F41:L41,"+0")&gt;0,"+0",IF(COUNTIF(F41:L41,"+I")&gt;0,"+I",IF(COUNTIF(F41:L41,"+II")&gt;0,"+II",IF(COUNTIF(F41:L41,"+III")&gt;0,"+III",IF(COUNTIF(F41:L41,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F41" s="9" t="str">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="I41" s="9" t="str">
         <f t="array" ref="I41">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B41,C41),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J41" s="9" t="str">
         <f t="array" ref="J41">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B41,C41),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
@@ -4054,11 +4054,11 @@
         <v>11.383799999999999</v>
       </c>
       <c r="D42" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F42:L42,"D")&gt;0,"D",IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E42" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F42:L42,"-III")&gt;0,"-III",IF(COUNTIF(F42:L42,"-II")&gt;0,"-II",IF(COUNTIF(F42:L42,"-I")&gt;0,"-I",IF(COUNTIF(F42:L42,"+0")&gt;0,"+0",IF(COUNTIF(F42:L42,"+I")&gt;0,"+I",IF(COUNTIF(F42:L42,"+II")&gt;0,"+II",IF(COUNTIF(F42:L42,"+III")&gt;0,"+III",IF(COUNTIF(F42:L42,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F42" s="9" t="str">
@@ -4075,19 +4075,19 @@
       </c>
       <c r="I42" s="9" t="str">
         <f t="array" ref="I42">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B42,C42),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J42" s="9" t="str">
         <f t="array" ref="J42">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B42,C42),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K42" s="9" t="str">
         <f t="array" ref="K42">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B42,C42),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L42" s="12" t="str">
         <f t="array" ref="L42">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B42,C42),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -4098,11 +4098,11 @@
         <v>11.8</v>
       </c>
       <c r="D43" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F43:L43,"D")&gt;0,"D",IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E43" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F43:L43,"-III")&gt;0,"-III",IF(COUNTIF(F43:L43,"-II")&gt;0,"-II",IF(COUNTIF(F43:L43,"-I")&gt;0,"-I",IF(COUNTIF(F43:L43,"+0")&gt;0,"+0",IF(COUNTIF(F43:L43,"+I")&gt;0,"+I",IF(COUNTIF(F43:L43,"+II")&gt;0,"+II",IF(COUNTIF(F43:L43,"+III")&gt;0,"+III",IF(COUNTIF(F43:L43,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F43" s="9" t="str">
@@ -4119,19 +4119,19 @@
       </c>
       <c r="I43" s="9" t="str">
         <f t="array" ref="I43">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B43,C43),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J43" s="9" t="str">
         <f t="array" ref="J43">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B43,C43),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K43" s="9" t="str">
         <f t="array" ref="K43">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B43,C43),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L43" s="12" t="str">
         <f t="array" ref="L43">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B43,C43),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -4142,11 +4142,11 @@
         <v>12.009</v>
       </c>
       <c r="D44" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F44:L44,"D")&gt;0,"D",IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E44" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F44:L44,"-III")&gt;0,"-III",IF(COUNTIF(F44:L44,"-II")&gt;0,"-II",IF(COUNTIF(F44:L44,"-I")&gt;0,"-I",IF(COUNTIF(F44:L44,"+0")&gt;0,"+0",IF(COUNTIF(F44:L44,"+I")&gt;0,"+I",IF(COUNTIF(F44:L44,"+II")&gt;0,"+II",IF(COUNTIF(F44:L44,"+III")&gt;0,"+III",IF(COUNTIF(F44:L44,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F44" s="9" t="str">
@@ -4163,19 +4163,19 @@
       </c>
       <c r="I44" s="9" t="str">
         <f t="array" ref="I44">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B44,C44),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J44" s="9" t="str">
         <f t="array" ref="J44">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B44,C44),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K44" s="9" t="str">
         <f t="array" ref="K44">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B44,C44),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L44" s="12" t="str">
         <f t="array" ref="L44">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B44,C44),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -4186,11 +4186,11 @@
         <v>12.3819</v>
       </c>
       <c r="D45" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F45:L45,"D")&gt;0,"D",IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E45" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F45:L45,"-III")&gt;0,"-III",IF(COUNTIF(F45:L45,"-II")&gt;0,"-II",IF(COUNTIF(F45:L45,"-I")&gt;0,"-I",IF(COUNTIF(F45:L45,"+0")&gt;0,"+0",IF(COUNTIF(F45:L45,"+I")&gt;0,"+I",IF(COUNTIF(F45:L45,"+II")&gt;0,"+II",IF(COUNTIF(F45:L45,"+III")&gt;0,"+III",IF(COUNTIF(F45:L45,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F45" s="9" t="str">
@@ -4207,19 +4207,19 @@
       </c>
       <c r="I45" s="9" t="str">
         <f t="array" ref="I45">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B45,C45),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J45" s="9" t="str">
         <f t="array" ref="J45">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B45,C45),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K45" s="9" t="str">
         <f t="array" ref="K45">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B45,C45),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L45" s="12" t="str">
         <f t="array" ref="L45">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B45,C45),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -4230,11 +4230,11 @@
         <v>13.311999999999999</v>
       </c>
       <c r="D46" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F46:L46,"D")&gt;0,"D",IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E46" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F46:L46,"-III")&gt;0,"-III",IF(COUNTIF(F46:L46,"-II")&gt;0,"-II",IF(COUNTIF(F46:L46,"-I")&gt;0,"-I",IF(COUNTIF(F46:L46,"+0")&gt;0,"+0",IF(COUNTIF(F46:L46,"+I")&gt;0,"+I",IF(COUNTIF(F46:L46,"+II")&gt;0,"+II",IF(COUNTIF(F46:L46,"+III")&gt;0,"+III",IF(COUNTIF(F46:L46,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F46" s="9" t="str">
@@ -4251,19 +4251,19 @@
       </c>
       <c r="I46" s="9" t="str">
         <f t="array" ref="I46">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B46,C46),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J46" s="9" t="str">
         <f t="array" ref="J46">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B46,C46),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K46" s="9" t="str">
         <f t="array" ref="K46">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B46,C46),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L46" s="12" t="str">
         <f t="array" ref="L46">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B46,C46),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -4274,11 +4274,11 @@
         <v>13.7217</v>
       </c>
       <c r="D47" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F47:L47,"D")&gt;0,"D",IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E47" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F47:L47,"-III")&gt;0,"-III",IF(COUNTIF(F47:L47,"-II")&gt;0,"-II",IF(COUNTIF(F47:L47,"-I")&gt;0,"-I",IF(COUNTIF(F47:L47,"+0")&gt;0,"+0",IF(COUNTIF(F47:L47,"+I")&gt;0,"+I",IF(COUNTIF(F47:L47,"+II")&gt;0,"+II",IF(COUNTIF(F47:L47,"+III")&gt;0,"+III",IF(COUNTIF(F47:L47,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F47" s="9" t="str">
@@ -4295,19 +4295,19 @@
       </c>
       <c r="I47" s="9" t="str">
         <f t="array" ref="I47">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B47,C47),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J47" s="9" t="str">
         <f t="array" ref="J47">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B47,C47),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K47" s="9" t="str">
         <f t="array" ref="K47">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B47,C47),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L47" s="12" t="str">
         <f t="array" ref="L47">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B47,C47),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -4318,11 +4318,11 @@
         <v>13.815</v>
       </c>
       <c r="D48" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F48:L48,"D")&gt;0,"D",IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E48" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F48:L48,"-III")&gt;0,"-III",IF(COUNTIF(F48:L48,"-II")&gt;0,"-II",IF(COUNTIF(F48:L48,"-I")&gt;0,"-I",IF(COUNTIF(F48:L48,"+0")&gt;0,"+0",IF(COUNTIF(F48:L48,"+I")&gt;0,"+I",IF(COUNTIF(F48:L48,"+II")&gt;0,"+II",IF(COUNTIF(F48:L48,"+III")&gt;0,"+III",IF(COUNTIF(F48:L48,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F48" s="9" t="str">
@@ -4339,19 +4339,19 @@
       </c>
       <c r="I48" s="9" t="str">
         <f t="array" ref="I48">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B48,C48),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J48" s="9" t="str">
         <f t="array" ref="J48">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B48,C48),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K48" s="9" t="str">
         <f t="array" ref="K48">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B48,C48),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L48" s="12" t="str">
         <f t="array" ref="L48">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B48,C48),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -4362,11 +4362,11 @@
         <v>14.618799999999998</v>
       </c>
       <c r="D49" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F49:L49,"D")&gt;0,"D",IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E49" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F49:L49,"-III")&gt;0,"-III",IF(COUNTIF(F49:L49,"-II")&gt;0,"-II",IF(COUNTIF(F49:L49,"-I")&gt;0,"-I",IF(COUNTIF(F49:L49,"+0")&gt;0,"+0",IF(COUNTIF(F49:L49,"+I")&gt;0,"+I",IF(COUNTIF(F49:L49,"+II")&gt;0,"+II",IF(COUNTIF(F49:L49,"+III")&gt;0,"+III",IF(COUNTIF(F49:L49,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F49" s="9" t="str">
@@ -4383,19 +4383,19 @@
       </c>
       <c r="I49" s="9" t="str">
         <f t="array" ref="I49">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B49,C49),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J49" s="9" t="str">
         <f t="array" ref="J49">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B49,C49),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K49" s="9" t="str">
         <f t="array" ref="K49">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B49,C49),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L49" s="12" t="str">
         <f t="array" ref="L49">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B49,C49),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -4406,11 +4406,11 @@
         <v>14.815</v>
       </c>
       <c r="D50" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F50:L50,"D")&gt;0,"D",IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E50" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F50:L50,"-III")&gt;0,"-III",IF(COUNTIF(F50:L50,"-II")&gt;0,"-II",IF(COUNTIF(F50:L50,"-I")&gt;0,"-I",IF(COUNTIF(F50:L50,"+0")&gt;0,"+0",IF(COUNTIF(F50:L50,"+I")&gt;0,"+I",IF(COUNTIF(F50:L50,"+II")&gt;0,"+II",IF(COUNTIF(F50:L50,"+III")&gt;0,"+III",IF(COUNTIF(F50:L50,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F50" s="9" t="str">
@@ -4427,19 +4427,19 @@
       </c>
       <c r="I50" s="9" t="str">
         <f t="array" ref="I50">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B50,C50),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J50" s="9" t="str">
         <f t="array" ref="J50">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B50,C50),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K50" s="9" t="str">
         <f t="array" ref="K50">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B50,C50),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L50" s="12" t="str">
         <f t="array" ref="L50">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B50,C50),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -4450,11 +4450,11 @@
         <v>15.411700000000002</v>
       </c>
       <c r="D51" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F51:L51,"D")&gt;0,"D",IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E51" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F51:L51,"-III")&gt;0,"-III",IF(COUNTIF(F51:L51,"-II")&gt;0,"-II",IF(COUNTIF(F51:L51,"-I")&gt;0,"-I",IF(COUNTIF(F51:L51,"+0")&gt;0,"+0",IF(COUNTIF(F51:L51,"+I")&gt;0,"+I",IF(COUNTIF(F51:L51,"+II")&gt;0,"+II",IF(COUNTIF(F51:L51,"+III")&gt;0,"+III",IF(COUNTIF(F51:L51,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F51" s="9" t="str">
@@ -4471,19 +4471,19 @@
       </c>
       <c r="I51" s="9" t="str">
         <f t="array" ref="I51">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B51,C51),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J51" s="9" t="str">
         <f t="array" ref="J51">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B51,C51),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K51" s="9" t="str">
         <f t="array" ref="K51">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B51,C51),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L51" s="12" t="str">
         <f t="array" ref="L51">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B51,C51),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -4494,11 +4494,11 @@
         <v>15.917999999999999</v>
       </c>
       <c r="D52" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F52:L52,"D")&gt;0,"D",IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E52" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F52:L52,"-III")&gt;0,"-III",IF(COUNTIF(F52:L52,"-II")&gt;0,"-II",IF(COUNTIF(F52:L52,"-I")&gt;0,"-I",IF(COUNTIF(F52:L52,"+0")&gt;0,"+0",IF(COUNTIF(F52:L52,"+I")&gt;0,"+I",IF(COUNTIF(F52:L52,"+II")&gt;0,"+II",IF(COUNTIF(F52:L52,"+III")&gt;0,"+III",IF(COUNTIF(F52:L52,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F52" s="9" t="str">
@@ -4515,19 +4515,19 @@
       </c>
       <c r="I52" s="9" t="str">
         <f t="array" ref="I52">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B52,C52),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J52" s="9" t="str">
         <f t="array" ref="J52">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B52,C52),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K52" s="9" t="str">
         <f t="array" ref="K52">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B52,C52),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L52" s="12" t="str">
         <f t="array" ref="L52">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B52,C52),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -4538,11 +4538,11 @@
         <v>16.620999999999999</v>
       </c>
       <c r="D53" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F53:L53,"D")&gt;0,"D",IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E53" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F53:L53,"-III")&gt;0,"-III",IF(COUNTIF(F53:L53,"-II")&gt;0,"-II",IF(COUNTIF(F53:L53,"-I")&gt;0,"-I",IF(COUNTIF(F53:L53,"+0")&gt;0,"+0",IF(COUNTIF(F53:L53,"+I")&gt;0,"+I",IF(COUNTIF(F53:L53,"+II")&gt;0,"+II",IF(COUNTIF(F53:L53,"+III")&gt;0,"+III",IF(COUNTIF(F53:L53,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F53" s="9" t="str">
@@ -4559,19 +4559,19 @@
       </c>
       <c r="I53" s="9" t="str">
         <f t="array" ref="I53">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B53,C53),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J53" s="9" t="str">
         <f t="array" ref="J53">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B53,C53),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K53" s="9" t="str">
         <f t="array" ref="K53">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B53,C53),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L53" s="12" t="str">
         <f t="array" ref="L53">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B53,C53),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -4582,11 +4582,11 @@
         <v>16.654199999999999</v>
       </c>
       <c r="D54" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F54:L54,"D")&gt;0,"D",IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E54" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F54:L54,"-III")&gt;0,"-III",IF(COUNTIF(F54:L54,"-II")&gt;0,"-II",IF(COUNTIF(F54:L54,"-I")&gt;0,"-I",IF(COUNTIF(F54:L54,"+0")&gt;0,"+0",IF(COUNTIF(F54:L54,"+I")&gt;0,"+I",IF(COUNTIF(F54:L54,"+II")&gt;0,"+II",IF(COUNTIF(F54:L54,"+III")&gt;0,"+III",IF(COUNTIF(F54:L54,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F54" s="9" t="str">
@@ -4603,19 +4603,19 @@
       </c>
       <c r="I54" s="9" t="str">
         <f t="array" ref="I54">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B54,C54),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J54" s="9" t="str">
         <f t="array" ref="J54">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B54,C54),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K54" s="9" t="str">
         <f t="array" ref="K54">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B54,C54),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L54" s="12" t="str">
         <f t="array" ref="L54">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B54,C54),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -4626,11 +4626,11 @@
         <v>16.792099999999998</v>
       </c>
       <c r="D55" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F55:L55,"D")&gt;0,"D",IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E55" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F55:L55,"-III")&gt;0,"-III",IF(COUNTIF(F55:L55,"-II")&gt;0,"-II",IF(COUNTIF(F55:L55,"-I")&gt;0,"-I",IF(COUNTIF(F55:L55,"+0")&gt;0,"+0",IF(COUNTIF(F55:L55,"+I")&gt;0,"+I",IF(COUNTIF(F55:L55,"+II")&gt;0,"+II",IF(COUNTIF(F55:L55,"+III")&gt;0,"+III",IF(COUNTIF(F55:L55,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F55" s="9" t="str">
@@ -4647,19 +4647,19 @@
       </c>
       <c r="I55" s="9" t="str">
         <f t="array" ref="I55">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B55,C55),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J55" s="9" t="str">
         <f t="array" ref="J55">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B55,C55),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K55" s="9" t="str">
         <f t="array" ref="K55">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B55,C55),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L55" s="12" t="str">
         <f t="array" ref="L55">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B55,C55),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -4670,11 +4670,11 @@
         <v>17.53</v>
       </c>
       <c r="D56" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F56:L56,"D")&gt;0,"D",IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E56" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F56:L56,"-III")&gt;0,"-III",IF(COUNTIF(F56:L56,"-II")&gt;0,"-II",IF(COUNTIF(F56:L56,"-I")&gt;0,"-I",IF(COUNTIF(F56:L56,"+0")&gt;0,"+0",IF(COUNTIF(F56:L56,"+I")&gt;0,"+I",IF(COUNTIF(F56:L56,"+II")&gt;0,"+II",IF(COUNTIF(F56:L56,"+III")&gt;0,"+III",IF(COUNTIF(F56:L56,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F56" s="9" t="str">
@@ -4691,19 +4691,19 @@
       </c>
       <c r="I56" s="9" t="str">
         <f t="array" ref="I56">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B56,C56),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J56" s="9" t="str">
         <f t="array" ref="J56">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B56,C56),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K56" s="9" t="str">
         <f t="array" ref="K56">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B56,C56),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L56" s="12" t="str">
         <f t="array" ref="L56">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B56,C56),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -4714,11 +4714,11 @@
         <v>17.875299999999999</v>
       </c>
       <c r="D57" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F57:L57,"D")&gt;0,"D",IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E57" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F57:L57,"-III")&gt;0,"-III",IF(COUNTIF(F57:L57,"-II")&gt;0,"-II",IF(COUNTIF(F57:L57,"-I")&gt;0,"-I",IF(COUNTIF(F57:L57,"+0")&gt;0,"+0",IF(COUNTIF(F57:L57,"+I")&gt;0,"+I",IF(COUNTIF(F57:L57,"+II")&gt;0,"+II",IF(COUNTIF(F57:L57,"+III")&gt;0,"+III",IF(COUNTIF(F57:L57,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F57" s="9" t="str">
@@ -4735,19 +4735,19 @@
       </c>
       <c r="I57" s="9" t="str">
         <f t="array" ref="I57">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B57,C57),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J57" s="9" t="str">
         <f t="array" ref="J57">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B57,C57),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K57" s="9" t="str">
         <f t="array" ref="K57">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B57,C57),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L57" s="12" t="str">
         <f t="array" ref="L57">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B57,C57),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -4758,11 +4758,11 @@
         <v>18.2</v>
       </c>
       <c r="D58" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F58:L58,"D")&gt;0,"D",IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E58" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F58:L58,"-III")&gt;0,"-III",IF(COUNTIF(F58:L58,"-II")&gt;0,"-II",IF(COUNTIF(F58:L58,"-I")&gt;0,"-I",IF(COUNTIF(F58:L58,"+0")&gt;0,"+0",IF(COUNTIF(F58:L58,"+I")&gt;0,"+I",IF(COUNTIF(F58:L58,"+II")&gt;0,"+II",IF(COUNTIF(F58:L58,"+III")&gt;0,"+III",IF(COUNTIF(F58:L58,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F58" s="9" t="str">
@@ -4779,19 +4779,19 @@
       </c>
       <c r="I58" s="9" t="str">
         <f t="array" ref="I58">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B58,C58),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J58" s="9" t="str">
         <f t="array" ref="J58">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B58,C58),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K58" s="9" t="str">
         <f t="array" ref="K58">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B58,C58),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L58" s="12" t="str">
         <f t="array" ref="L58">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B58,C58),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -4802,11 +4802,11 @@
         <v>18.428999999999998</v>
       </c>
       <c r="D59" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F59:L59,"D")&gt;0,"D",IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E59" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F59:L59,"-III")&gt;0,"-III",IF(COUNTIF(F59:L59,"-II")&gt;0,"-II",IF(COUNTIF(F59:L59,"-I")&gt;0,"-I",IF(COUNTIF(F59:L59,"+0")&gt;0,"+0",IF(COUNTIF(F59:L59,"+I")&gt;0,"+I",IF(COUNTIF(F59:L59,"+II")&gt;0,"+II",IF(COUNTIF(F59:L59,"+III")&gt;0,"+III",IF(COUNTIF(F59:L59,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F59" s="9" t="str">
@@ -4823,19 +4823,19 @@
       </c>
       <c r="I59" s="9" t="str">
         <f t="array" ref="I59">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B59,C59),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J59" s="9" t="str">
         <f t="array" ref="J59">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B59,C59),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K59" s="9" t="str">
         <f t="array" ref="K59">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B59,C59),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L59" s="12" t="str">
         <f t="array" ref="L59">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B59,C59),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -4846,11 +4846,11 @@
         <v>18.815099999999997</v>
       </c>
       <c r="D60" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F60:L60,"D")&gt;0,"D",IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E60" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F60:L60,"-III")&gt;0,"-III",IF(COUNTIF(F60:L60,"-II")&gt;0,"-II",IF(COUNTIF(F60:L60,"-I")&gt;0,"-I",IF(COUNTIF(F60:L60,"+0")&gt;0,"+0",IF(COUNTIF(F60:L60,"+I")&gt;0,"+I",IF(COUNTIF(F60:L60,"+II")&gt;0,"+II",IF(COUNTIF(F60:L60,"+III")&gt;0,"+III",IF(COUNTIF(F60:L60,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F60" s="9" t="str">
@@ -4867,19 +4867,19 @@
       </c>
       <c r="I60" s="9" t="str">
         <f t="array" ref="I60">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B60,C60),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J60" s="9" t="str">
         <f t="array" ref="J60">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B60,C60),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K60" s="9" t="str">
         <f t="array" ref="K60">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B60,C60),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L60" s="12" t="str">
         <f t="array" ref="L60">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B60,C60),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -4890,11 +4890,11 @@
         <v>18.841000000000001</v>
       </c>
       <c r="D61" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F61:L61,"D")&gt;0,"D",IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E61" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F61:L61,"-III")&gt;0,"-III",IF(COUNTIF(F61:L61,"-II")&gt;0,"-II",IF(COUNTIF(F61:L61,"-I")&gt;0,"-I",IF(COUNTIF(F61:L61,"+0")&gt;0,"+0",IF(COUNTIF(F61:L61,"+I")&gt;0,"+I",IF(COUNTIF(F61:L61,"+II")&gt;0,"+II",IF(COUNTIF(F61:L61,"+III")&gt;0,"+III",IF(COUNTIF(F61:L61,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F61" s="9" t="str">
@@ -4911,19 +4911,19 @@
       </c>
       <c r="I61" s="9" t="str">
         <f t="array" ref="I61">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B61,C61),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J61" s="9" t="str">
         <f t="array" ref="J61">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B61,C61),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K61" s="9" t="str">
         <f t="array" ref="K61">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B61,C61),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L61" s="12" t="str">
         <f t="array" ref="L61">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B61,C61),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -4934,11 +4934,11 @@
         <v>19.217200000000002</v>
       </c>
       <c r="D62" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F62:L62,"D")&gt;0,"D",IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E62" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F62:L62,"-III")&gt;0,"-III",IF(COUNTIF(F62:L62,"-II")&gt;0,"-II",IF(COUNTIF(F62:L62,"-I")&gt;0,"-I",IF(COUNTIF(F62:L62,"+0")&gt;0,"+0",IF(COUNTIF(F62:L62,"+I")&gt;0,"+I",IF(COUNTIF(F62:L62,"+II")&gt;0,"+II",IF(COUNTIF(F62:L62,"+III")&gt;0,"+III",IF(COUNTIF(F62:L62,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F62" s="9" t="str">
@@ -4955,19 +4955,19 @@
       </c>
       <c r="I62" s="9" t="str">
         <f t="array" ref="I62">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B62,C62),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J62" s="9" t="str">
         <f t="array" ref="J62">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B62,C62),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K62" s="9" t="str">
         <f t="array" ref="K62">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B62,C62),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L62" s="12" t="str">
         <f t="array" ref="L62">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B62,C62),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -4978,11 +4978,11 @@
         <v>19.25</v>
       </c>
       <c r="D63" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F63:L63,"D")&gt;0,"D",IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E63" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F63:L63,"-III")&gt;0,"-III",IF(COUNTIF(F63:L63,"-II")&gt;0,"-II",IF(COUNTIF(F63:L63,"-I")&gt;0,"-I",IF(COUNTIF(F63:L63,"+0")&gt;0,"+0",IF(COUNTIF(F63:L63,"+I")&gt;0,"+I",IF(COUNTIF(F63:L63,"+II")&gt;0,"+II",IF(COUNTIF(F63:L63,"+III")&gt;0,"+III",IF(COUNTIF(F63:L63,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F63" s="9" t="str">
@@ -4999,19 +4999,19 @@
       </c>
       <c r="I63" s="9" t="str">
         <f t="array" ref="I63">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B63,C63),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J63" s="9" t="str">
         <f t="array" ref="J63">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B63,C63),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K63" s="9" t="str">
         <f t="array" ref="K63">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B63,C63),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L63" s="12" t="str">
         <f t="array" ref="L63">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B63,C63),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -5022,11 +5022,11 @@
         <v>19.761599999999998</v>
       </c>
       <c r="D64" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F64:L64,"D")&gt;0,"D",IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E64" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F64:L64,"-III")&gt;0,"-III",IF(COUNTIF(F64:L64,"-II")&gt;0,"-II",IF(COUNTIF(F64:L64,"-I")&gt;0,"-I",IF(COUNTIF(F64:L64,"+0")&gt;0,"+0",IF(COUNTIF(F64:L64,"+I")&gt;0,"+I",IF(COUNTIF(F64:L64,"+II")&gt;0,"+II",IF(COUNTIF(F64:L64,"+III")&gt;0,"+III",IF(COUNTIF(F64:L64,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F64" s="9" t="str">
@@ -5043,19 +5043,19 @@
       </c>
       <c r="I64" s="9" t="str">
         <f t="array" ref="I64">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B64,C64),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J64" s="9" t="str">
         <f t="array" ref="J64">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B64,C64),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K64" s="9" t="str">
         <f t="array" ref="K64">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B64,C64),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L64" s="12" t="str">
         <f t="array" ref="L64">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B64,C64),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -5066,11 +5066,11 @@
         <v>20.268999999999998</v>
       </c>
       <c r="D65" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F65:L65,"D")&gt;0,"D",IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E65" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F65:L65,"-III")&gt;0,"-III",IF(COUNTIF(F65:L65,"-II")&gt;0,"-II",IF(COUNTIF(F65:L65,"-I")&gt;0,"-I",IF(COUNTIF(F65:L65,"+0")&gt;0,"+0",IF(COUNTIF(F65:L65,"+I")&gt;0,"+I",IF(COUNTIF(F65:L65,"+II")&gt;0,"+II",IF(COUNTIF(F65:L65,"+III")&gt;0,"+III",IF(COUNTIF(F65:L65,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F65" s="9" t="str">
@@ -5087,19 +5087,19 @@
       </c>
       <c r="I65" s="9" t="str">
         <f t="array" ref="I65">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B65,C65),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J65" s="9" t="str">
         <f t="array" ref="J65">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B65,C65),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K65" s="9" t="str">
         <f t="array" ref="K65">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B65,C65),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L65" s="12" t="str">
         <f t="array" ref="L65">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B65,C65),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -5110,11 +5110,11 @@
         <v>20.358799999999999</v>
       </c>
       <c r="D66" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(F66:L66,"D")&gt;0,"D",IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E66" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(COUNTIF(F66:L66,"-III")&gt;0,"-III",IF(COUNTIF(F66:L66,"-II")&gt;0,"-II",IF(COUNTIF(F66:L66,"-I")&gt;0,"-I",IF(COUNTIF(F66:L66,"+0")&gt;0,"+0",IF(COUNTIF(F66:L66,"+I")&gt;0,"+I",IF(COUNTIF(F66:L66,"+II")&gt;0,"+II",IF(COUNTIF(F66:L66,"+III")&gt;0,"+III",IF(COUNTIF(F66:L66,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F66" s="9" t="str">
@@ -5131,19 +5131,19 @@
       </c>
       <c r="I66" s="9" t="str">
         <f t="array" ref="I66">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B66,C66),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J66" s="9" t="str">
         <f t="array" ref="J66">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B66,C66),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K66" s="9" t="str">
         <f t="array" ref="K66">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B66,C66),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L66" s="12" t="str">
         <f t="array" ref="L66">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B66,C66),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -5154,11 +5154,11 @@
         <v>20.5168</v>
       </c>
       <c r="D67" s="23" t="str">
-        <f t="shared" ref="D67:D68" si="2">IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND"))))))))</f>
+        <f>IF(COUNTIF(F67:L67,"D")&gt;0,"D",IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E67" s="23" t="str">
-        <f t="shared" ref="E67:E68" si="3">IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III","ND")))))))</f>
+        <f>IF(COUNTIF(F67:L67,"-III")&gt;0,"-III",IF(COUNTIF(F67:L67,"-II")&gt;0,"-II",IF(COUNTIF(F67:L67,"-I")&gt;0,"-I",IF(COUNTIF(F67:L67,"+0")&gt;0,"+0",IF(COUNTIF(F67:L67,"+I")&gt;0,"+I",IF(COUNTIF(F67:L67,"+II")&gt;0,"+II",IF(COUNTIF(F67:L67,"+III")&gt;0,"+III",IF(COUNTIF(F67:L67,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F67" s="9" t="str">
@@ -5175,19 +5175,19 @@
       </c>
       <c r="I67" s="9" t="str">
         <f t="array" ref="I67">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B67,C67),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J67" s="9" t="str">
         <f t="array" ref="J67">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B67,C67),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K67" s="9" t="str">
         <f t="array" ref="K67">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B67,C67),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L67" s="12" t="str">
         <f t="array" ref="L67">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B67,C67),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -5198,11 +5198,11 @@
         <v>21.02</v>
       </c>
       <c r="D68" s="23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(COUNTIF(F68:L68,"D")&gt;0,"D",IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-III</v>
       </c>
       <c r="E68" s="23" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(COUNTIF(F68:L68,"-III")&gt;0,"-III",IF(COUNTIF(F68:L68,"-II")&gt;0,"-II",IF(COUNTIF(F68:L68,"-I")&gt;0,"-I",IF(COUNTIF(F68:L68,"+0")&gt;0,"+0",IF(COUNTIF(F68:L68,"+I")&gt;0,"+I",IF(COUNTIF(F68:L68,"+II")&gt;0,"+II",IF(COUNTIF(F68:L68,"+III")&gt;0,"+III",IF(COUNTIF(F68:L68,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-III</v>
       </c>
       <c r="F68" s="9" t="str">
@@ -5219,19 +5219,19 @@
       </c>
       <c r="I68" s="9" t="str">
         <f t="array" ref="I68">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B68,C68),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="J68" s="9" t="str">
         <f t="array" ref="J68">INDEX(STKWp!$K$11:$K$33,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$33&gt;AVERAGE(B68,C68),STKWp!$D$11:$D$33)),STKWp!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K68" s="9" t="str">
         <f t="array" ref="K68">INDEX(BSKW!$K$11:$K$33,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$33&gt;AVERAGE(B68,C68),BSKW!$D$11:$D$33)),BSKW!$D$11:$D$33),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="L68" s="12" t="str">
         <f t="array" ref="L68">INDEX(HTKW!$K$11:$K$34,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$34&gt;AVERAGE(B68,C68),HTKW!$D$11:$D$34)),HTKW!$D$11:$D$34),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -5632,8 +5632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
   <dimension ref="B2:Y36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5820,7 +5820,7 @@
         <v>3.3610000000000002</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11:O34" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <f t="shared" ref="O11:O34" si="3">IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
         <v>+0</v>
       </c>
       <c r="Q11" s="31">
@@ -7727,7 +7727,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="O11" sqref="O11:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7914,11 +7914,11 @@
         <v>8.7880000000000003</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11:O13" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <f>IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
         <v>-III</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q13" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11:Q13" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>0.99015743999999994</v>
       </c>
       <c r="R11" s="10">
@@ -7926,7 +7926,7 @@
         <v>0.99015743999999994</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S13" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11:S13" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>1.6576000000000004E-2</v>
       </c>
       <c r="T11" s="10">
@@ -7990,23 +7990,23 @@
         <v>5.2239999999999993</v>
       </c>
       <c r="O12" s="32" t="str">
+        <f>IF(E12="Nee","NR",IF(ISNUMBER($M12),W12,IF($X12,"D","ND")))</f>
+        <v>-III</v>
+      </c>
+      <c r="Q12" s="31">
         <f t="shared" si="3"/>
-        <v>-III</v>
-      </c>
-      <c r="Q12" s="31">
+        <v>0.99874624000000001</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" ref="R12:R13" si="5">IF(M12="-",1,Q12)</f>
+        <v>0.99874624000000001</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="4"/>
-        <v>0.99874624000000001</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" ref="R12:R13" si="6">IF(M12="-",1,Q12)</f>
-        <v>0.99874624000000001</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="5"/>
         <v>3.5520000000000005E-3</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T13" si="7">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T13" si="6">IF(L12="-",0,S12)</f>
         <v>3.5520000000000005E-3</v>
       </c>
       <c r="U12" s="9">
@@ -8022,7 +8022,7 @@
         <v>-III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X13" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" ref="X12:X13" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8066,23 +8066,23 @@
         <v>2.8612000000000002</v>
       </c>
       <c r="O13" s="32" t="str">
+        <f>IF(E13="Nee","NR",IF(ISNUMBER($M13),W13,IF($X13,"D","ND")))</f>
+        <v>-III</v>
+      </c>
+      <c r="Q13" s="31">
         <f t="shared" si="3"/>
-        <v>-III</v>
-      </c>
-      <c r="Q13" s="31">
+        <v>0.82432232000000005</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="5"/>
+        <v>0.82432232000000005</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="4"/>
-        <v>0.82432232000000005</v>
-      </c>
-      <c r="R13" s="10">
+        <v>0.90871999999999997</v>
+      </c>
+      <c r="T13" s="10">
         <f t="shared" si="6"/>
-        <v>0.82432232000000005</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="5"/>
-        <v>0.90871999999999997</v>
-      </c>
-      <c r="T13" s="10">
-        <f t="shared" si="7"/>
         <v>0.90871999999999997</v>
       </c>
       <c r="U13" s="9">
@@ -8098,7 +8098,7 @@
         <v>-III</v>
       </c>
       <c r="X13" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8632,8 +8632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:U73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8792,7 +8792,7 @@
         <v>1.7499999999999998E-5</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K14" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <f t="shared" ref="K11:K31" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>+0</v>
       </c>
       <c r="M11" s="31">
@@ -9048,23 +9048,23 @@
         <v>5.999E-5</v>
       </c>
       <c r="K15" s="32" t="str">
-        <f t="shared" ref="K15:K31" si="12">IF(ISNUMBER($J15),S15,IF($T15,"D","ND"))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" ref="M15:M31" si="13">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+        <f t="shared" ref="M15:M31" si="12">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
         <v>0.99994000999999999</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" ref="N15:N31" si="14">IF(J15="-",1,M15)</f>
+        <f t="shared" ref="N15:N31" si="13">IF(J15="-",1,M15)</f>
         <v>0.99994000999999999</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" ref="O15:O31" si="15">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
+        <f t="shared" ref="O15:O31" si="14">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
         <v>1.1998E-4</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" ref="P15:P31" si="16">IF(J15="-",0,O15)</f>
+        <f t="shared" ref="P15:P31" si="15">IF(J15="-",0,O15)</f>
         <v>1.1998E-4</v>
       </c>
       <c r="Q15" s="9">
@@ -9112,23 +9112,23 @@
         <v>5.5349999999999997E-5</v>
       </c>
       <c r="K16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="M16" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="M16" s="31">
+        <v>0.99994464999999999</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="13"/>
         <v>0.99994464999999999</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="14"/>
-        <v>0.99994464999999999</v>
-      </c>
-      <c r="O16" s="10">
+        <v>1.1069999999999999E-4</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="15"/>
-        <v>1.1069999999999999E-4</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="16"/>
         <v>1.1069999999999999E-4</v>
       </c>
       <c r="Q16" s="9">
@@ -9176,23 +9176,23 @@
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="M17" s="31">
         <f t="shared" si="12"/>
-        <v>+III</v>
-      </c>
-      <c r="M17" s="31">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -9240,23 +9240,23 @@
         <v>6.6080000000000004E-5</v>
       </c>
       <c r="K18" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="M18" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="M18" s="31">
+        <v>0.99993392000000003</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="13"/>
         <v>0.99993392000000003</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="14"/>
-        <v>0.99993392000000003</v>
-      </c>
-      <c r="O18" s="10">
+        <v>1.3216000000000001E-4</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="15"/>
-        <v>1.3216000000000001E-4</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="16"/>
         <v>1.3216000000000001E-4</v>
       </c>
       <c r="Q18" s="9">
@@ -9304,23 +9304,23 @@
         <v>1.403E-5</v>
       </c>
       <c r="K19" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
+      </c>
+      <c r="M19" s="31">
         <f t="shared" si="12"/>
-        <v>+0</v>
-      </c>
-      <c r="M19" s="31">
+        <v>0.99998597</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="13"/>
         <v>0.99998597</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="14"/>
-        <v>0.99998597</v>
-      </c>
-      <c r="O19" s="10">
+        <v>2.8059999999999999E-5</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="15"/>
-        <v>2.8059999999999999E-5</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="16"/>
         <v>2.8059999999999999E-5</v>
       </c>
       <c r="Q19" s="9">
@@ -9368,23 +9368,23 @@
         <v>2.535E-5</v>
       </c>
       <c r="K20" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
+      </c>
+      <c r="M20" s="31">
         <f t="shared" si="12"/>
-        <v>+0</v>
-      </c>
-      <c r="M20" s="31">
+        <v>0.99997464999999996</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="13"/>
         <v>0.99997464999999996</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="14"/>
-        <v>0.99997464999999996</v>
-      </c>
-      <c r="O20" s="10">
+        <v>5.0699999999999999E-5</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="15"/>
-        <v>5.0699999999999999E-5</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="16"/>
         <v>5.0699999999999999E-5</v>
       </c>
       <c r="Q20" s="9">
@@ -9432,23 +9432,23 @@
         <v>3.93E-5</v>
       </c>
       <c r="K21" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="M21" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="M21" s="31">
+        <v>0.99996070000000004</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="13"/>
         <v>0.99996070000000004</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="14"/>
-        <v>0.99996070000000004</v>
-      </c>
-      <c r="O21" s="10">
+        <v>7.86E-5</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="15"/>
-        <v>7.86E-5</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="16"/>
         <v>7.86E-5</v>
       </c>
       <c r="Q21" s="9">
@@ -9496,23 +9496,23 @@
         <v>3.7320000000000002E-5</v>
       </c>
       <c r="K22" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="M22" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="M22" s="31">
+        <v>0.99996267999999999</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="13"/>
         <v>0.99996267999999999</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="14"/>
-        <v>0.99996267999999999</v>
-      </c>
-      <c r="O22" s="10">
+        <v>7.4640000000000004E-5</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="15"/>
-        <v>7.4640000000000004E-5</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="16"/>
         <v>7.4640000000000004E-5</v>
       </c>
       <c r="Q22" s="9">
@@ -9560,23 +9560,23 @@
         <v>1.2459999999999999E-4</v>
       </c>
       <c r="K23" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-II</v>
+      </c>
+      <c r="M23" s="31">
         <f t="shared" si="12"/>
-        <v>-II</v>
-      </c>
-      <c r="M23" s="31">
+        <v>0.99987539999999997</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="13"/>
         <v>0.99987539999999997</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <f t="shared" si="14"/>
-        <v>0.99987539999999997</v>
-      </c>
-      <c r="O23" s="10">
+        <v>2.4919999999999999E-4</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="15"/>
-        <v>2.4919999999999999E-4</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="16"/>
         <v>2.4919999999999999E-4</v>
       </c>
       <c r="Q23" s="9">
@@ -9624,23 +9624,23 @@
         <v>5.7670000000000002E-5</v>
       </c>
       <c r="K24" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="M24" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="M24" s="31">
+        <v>0.99994232999999999</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="13"/>
         <v>0.99994232999999999</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="10">
         <f t="shared" si="14"/>
-        <v>0.99994232999999999</v>
-      </c>
-      <c r="O24" s="10">
+        <v>1.1534E-4</v>
+      </c>
+      <c r="P24" s="10">
         <f t="shared" si="15"/>
-        <v>1.1534E-4</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="16"/>
         <v>1.1534E-4</v>
       </c>
       <c r="Q24" s="9">
@@ -9688,23 +9688,23 @@
         <v>4.1610000000000003E-5</v>
       </c>
       <c r="K25" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="M25" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="M25" s="31">
+        <v>0.99995838999999997</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="13"/>
         <v>0.99995838999999997</v>
       </c>
-      <c r="N25" s="10">
+      <c r="O25" s="10">
         <f t="shared" si="14"/>
-        <v>0.99995838999999997</v>
-      </c>
-      <c r="O25" s="10">
+        <v>8.3220000000000006E-5</v>
+      </c>
+      <c r="P25" s="10">
         <f t="shared" si="15"/>
-        <v>8.3220000000000006E-5</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="16"/>
         <v>8.3220000000000006E-5</v>
       </c>
       <c r="Q25" s="9">
@@ -9752,23 +9752,23 @@
         <v>4.3050000000000003E-5</v>
       </c>
       <c r="K26" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="M26" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="M26" s="31">
+        <v>0.99995694999999996</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="13"/>
         <v>0.99995694999999996</v>
       </c>
-      <c r="N26" s="10">
+      <c r="O26" s="10">
         <f t="shared" si="14"/>
-        <v>0.99995694999999996</v>
-      </c>
-      <c r="O26" s="10">
+        <v>8.6100000000000006E-5</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="15"/>
-        <v>8.6100000000000006E-5</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="16"/>
         <v>8.6100000000000006E-5</v>
       </c>
       <c r="Q26" s="9">
@@ -9816,23 +9816,23 @@
         <v>3.8670000000000001E-5</v>
       </c>
       <c r="K27" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="M27" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="M27" s="31">
+        <v>0.99996132999999998</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="13"/>
         <v>0.99996132999999998</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="10">
         <f t="shared" si="14"/>
-        <v>0.99996132999999998</v>
-      </c>
-      <c r="O27" s="10">
+        <v>7.7340000000000002E-5</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="15"/>
-        <v>7.7340000000000002E-5</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="16"/>
         <v>7.7340000000000002E-5</v>
       </c>
       <c r="Q27" s="9">
@@ -9880,23 +9880,23 @@
         <v>6.2639999999999997E-5</v>
       </c>
       <c r="K28" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="M28" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="M28" s="31">
+        <v>0.99993736</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="13"/>
         <v>0.99993736</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
         <f t="shared" si="14"/>
-        <v>0.99993736</v>
-      </c>
-      <c r="O28" s="10">
+        <v>1.2527999999999999E-4</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="15"/>
-        <v>1.2527999999999999E-4</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="16"/>
         <v>1.2527999999999999E-4</v>
       </c>
       <c r="Q28" s="9">
@@ -9944,23 +9944,23 @@
         <v>3.9959999999999997E-5</v>
       </c>
       <c r="K29" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="M29" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="M29" s="31">
+        <v>0.99996004000000005</v>
+      </c>
+      <c r="N29" s="10">
         <f t="shared" si="13"/>
         <v>0.99996004000000005</v>
       </c>
-      <c r="N29" s="10">
+      <c r="O29" s="10">
         <f t="shared" si="14"/>
-        <v>0.99996004000000005</v>
-      </c>
-      <c r="O29" s="10">
+        <v>7.9919999999999994E-5</v>
+      </c>
+      <c r="P29" s="10">
         <f t="shared" si="15"/>
-        <v>7.9919999999999994E-5</v>
-      </c>
-      <c r="P29" s="10">
-        <f t="shared" si="16"/>
         <v>7.9919999999999994E-5</v>
       </c>
       <c r="Q29" s="9">
@@ -10008,23 +10008,23 @@
         <v>3.0369999999999999E-5</v>
       </c>
       <c r="K30" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+0</v>
+      </c>
+      <c r="M30" s="31">
         <f t="shared" si="12"/>
-        <v>+0</v>
-      </c>
-      <c r="M30" s="31">
+        <v>0.99996963000000005</v>
+      </c>
+      <c r="N30" s="10">
         <f t="shared" si="13"/>
         <v>0.99996963000000005</v>
       </c>
-      <c r="N30" s="10">
+      <c r="O30" s="10">
         <f t="shared" si="14"/>
-        <v>0.99996963000000005</v>
-      </c>
-      <c r="O30" s="10">
+        <v>6.0739999999999998E-5</v>
+      </c>
+      <c r="P30" s="10">
         <f t="shared" si="15"/>
-        <v>6.0739999999999998E-5</v>
-      </c>
-      <c r="P30" s="10">
-        <f t="shared" si="16"/>
         <v>6.0739999999999998E-5</v>
       </c>
       <c r="Q30" s="9">
@@ -10072,23 +10072,23 @@
         <v>4.6610000000000003E-5</v>
       </c>
       <c r="K31" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="M31" s="31">
         <f t="shared" si="12"/>
-        <v>-I</v>
-      </c>
-      <c r="M31" s="31">
+        <v>0.99995339000000005</v>
+      </c>
+      <c r="N31" s="10">
         <f t="shared" si="13"/>
         <v>0.99995339000000005</v>
       </c>
-      <c r="N31" s="10">
+      <c r="O31" s="10">
         <f t="shared" si="14"/>
-        <v>0.99995339000000005</v>
-      </c>
-      <c r="O31" s="10">
+        <v>9.3220000000000005E-5</v>
+      </c>
+      <c r="P31" s="10">
         <f t="shared" si="15"/>
-        <v>9.3220000000000005E-5</v>
-      </c>
-      <c r="P31" s="10">
-        <f t="shared" si="16"/>
         <v>9.3220000000000005E-5</v>
       </c>
       <c r="Q31" s="9">
@@ -11031,7 +11031,7 @@
   <dimension ref="B2:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11188,8 +11188,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="47" t="str">
-        <f>IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="33">
         <f>IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -11352,8 +11352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4337BDE-5D5C-4814-877A-41AF49DBDF5F}">
   <dimension ref="B2:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11510,8 +11510,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K12" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" ref="K11:K31" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -11636,19 +11636,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" ref="K13:K19" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" si="1"/>
+        <v>NR</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M19" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M19" si="7">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N19" si="9">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N19" si="8">IF(J13="-",1,M13)</f>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O19" si="10">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <f t="shared" ref="O13:O19" si="9">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P13" s="10">
@@ -11700,23 +11700,23 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="K14" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="M14" s="31">
         <f t="shared" si="7"/>
-        <v>+I</v>
-      </c>
-      <c r="M14" s="31">
+        <v>0.99999899999999997</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="8"/>
         <v>0.99999899999999997</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999899999999997</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="10"/>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P19" si="11">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P19" si="10">IF(J14="-",0,O14)</f>
         <v>3.0000000000000001E-6</v>
       </c>
       <c r="Q14" s="9">
@@ -11762,23 +11762,23 @@
         <v>0</v>
       </c>
       <c r="K15" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M15" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M15" s="31">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -11826,23 +11826,23 @@
         <v>2.22E-7</v>
       </c>
       <c r="K16" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M16" s="31">
         <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="M16" s="31">
+        <v>0.99999977799999995</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="8"/>
         <v>0.99999977799999995</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999977799999995</v>
-      </c>
-      <c r="O16" s="10">
+        <v>6.6600000000000006E-7</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="10"/>
-        <v>6.6600000000000006E-7</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="11"/>
         <v>6.6600000000000006E-7</v>
       </c>
       <c r="Q16" s="9">
@@ -11888,23 +11888,23 @@
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M17" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M17" s="31">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -11952,23 +11952,23 @@
         <v>1.4999999999999999E-7</v>
       </c>
       <c r="K18" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M18" s="31">
         <f t="shared" si="7"/>
-        <v>+II</v>
-      </c>
-      <c r="M18" s="31">
+        <v>0.99999985000000002</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="8"/>
         <v>0.99999985000000002</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999985000000002</v>
-      </c>
-      <c r="O18" s="10">
+        <v>4.4999999999999998E-7</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="10"/>
-        <v>4.4999999999999998E-7</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="11"/>
         <v>4.4999999999999998E-7</v>
       </c>
       <c r="Q18" s="9">
@@ -12014,23 +12014,23 @@
         <v>0</v>
       </c>
       <c r="K19" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M19" s="31">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M19" s="31">
+        <v>1</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="N19" s="10">
+      <c r="O19" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -12074,27 +12074,27 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" ref="J20:J31" si="12">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
+        <f t="shared" ref="J20:J31" si="11">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
         <v>1.4999999999999999E-7</v>
       </c>
       <c r="K20" s="32" t="str">
-        <f t="shared" ref="K20:K31" si="13">IF(ISNUMBER($J20),S20,IF($T20,"D","ND"))</f>
+        <f t="shared" si="1"/>
         <v>+II</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" ref="M20:M31" si="14">IF(AND(F20="Geen faalkans",H20="Nee"),1,1-J20)</f>
+        <f t="shared" ref="M20:M31" si="12">IF(AND(F20="Geen faalkans",H20="Nee"),1,1-J20)</f>
         <v>0.99999985000000002</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" ref="N20:N31" si="15">IF(J20="-",1,M20)</f>
+        <f t="shared" ref="N20:N31" si="13">IF(J20="-",1,M20)</f>
         <v>0.99999985000000002</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" ref="O20:O31" si="16">IF(AND(F20="Geen faalkans",H20="Nee"),0,J20*$C$3)</f>
+        <f t="shared" ref="O20:O31" si="14">IF(AND(F20="Geen faalkans",H20="Nee"),0,J20*$C$3)</f>
         <v>4.4999999999999998E-7</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" ref="P20:P31" si="17">IF(J20="-",0,O20)</f>
+        <f t="shared" ref="P20:P31" si="15">IF(J20="-",0,O20)</f>
         <v>4.4999999999999998E-7</v>
       </c>
       <c r="Q20" s="9">
@@ -12136,27 +12136,27 @@
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M21" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -12200,27 +12200,27 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
+        <f t="shared" si="11"/>
+        <v>7.4000000000000001E-9</v>
+      </c>
+      <c r="K22" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="M22" s="31">
         <f t="shared" si="12"/>
-        <v>7.4000000000000001E-9</v>
-      </c>
-      <c r="K22" s="32" t="str">
+        <v>0.99999999260000005</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M22" s="31">
+        <v>0.99999999260000005</v>
+      </c>
+      <c r="O22" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999999260000005</v>
-      </c>
-      <c r="N22" s="10">
+        <v>2.22E-8</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999999260000005</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="16"/>
-        <v>2.22E-8</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="17"/>
         <v>2.22E-8</v>
       </c>
       <c r="Q22" s="9">
@@ -12262,27 +12262,27 @@
       </c>
       <c r="I23" s="26"/>
       <c r="J23" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M23" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="N23" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M23" s="31">
+        <v>1</v>
+      </c>
+      <c r="O23" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="10">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O23" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q23" s="9">
@@ -12326,27 +12326,27 @@
       </c>
       <c r="I24" s="26"/>
       <c r="J24" s="10">
+        <f t="shared" si="11"/>
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="K24" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="M24" s="31">
         <f t="shared" si="12"/>
-        <v>6.9999999999999997E-7</v>
-      </c>
-      <c r="K24" s="32" t="str">
+        <v>0.99999930000000004</v>
+      </c>
+      <c r="N24" s="10">
         <f t="shared" si="13"/>
-        <v>+I</v>
-      </c>
-      <c r="M24" s="31">
+        <v>0.99999930000000004</v>
+      </c>
+      <c r="O24" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999930000000004</v>
-      </c>
-      <c r="N24" s="10">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="P24" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999930000000004</v>
-      </c>
-      <c r="O24" s="10">
-        <f t="shared" si="16"/>
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="P24" s="10">
-        <f t="shared" si="17"/>
         <v>2.0999999999999998E-6</v>
       </c>
       <c r="Q24" s="9">
@@ -12388,27 +12388,27 @@
       </c>
       <c r="I25" s="26"/>
       <c r="J25" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M25" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="N25" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M25" s="31">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="10">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q25" s="9">
@@ -12452,27 +12452,27 @@
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="10">
+        <f t="shared" si="11"/>
+        <v>6.9999999999999997E-7</v>
+      </c>
+      <c r="K26" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+I</v>
+      </c>
+      <c r="M26" s="31">
         <f t="shared" si="12"/>
-        <v>6.9999999999999997E-7</v>
-      </c>
-      <c r="K26" s="32" t="str">
+        <v>0.99999930000000004</v>
+      </c>
+      <c r="N26" s="10">
         <f t="shared" si="13"/>
-        <v>+I</v>
-      </c>
-      <c r="M26" s="31">
+        <v>0.99999930000000004</v>
+      </c>
+      <c r="O26" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999930000000004</v>
-      </c>
-      <c r="N26" s="10">
+        <v>2.0999999999999998E-6</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999930000000004</v>
-      </c>
-      <c r="O26" s="10">
-        <f t="shared" si="16"/>
-        <v>2.0999999999999998E-6</v>
-      </c>
-      <c r="P26" s="10">
-        <f t="shared" si="17"/>
         <v>2.0999999999999998E-6</v>
       </c>
       <c r="Q26" s="9">
@@ -12514,27 +12514,27 @@
       </c>
       <c r="I27" s="26"/>
       <c r="J27" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M27" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="N27" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M27" s="31">
+        <v>1</v>
+      </c>
+      <c r="O27" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O27" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q27" s="9">
@@ -12578,27 +12578,27 @@
       </c>
       <c r="I28" s="26"/>
       <c r="J28" s="10">
+        <f t="shared" si="11"/>
+        <v>7.4000000000000001E-9</v>
+      </c>
+      <c r="K28" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="M28" s="31">
         <f t="shared" si="12"/>
-        <v>7.4000000000000001E-9</v>
-      </c>
-      <c r="K28" s="32" t="str">
+        <v>0.99999999260000005</v>
+      </c>
+      <c r="N28" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M28" s="31">
+        <v>0.99999999260000005</v>
+      </c>
+      <c r="O28" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999999260000005</v>
-      </c>
-      <c r="N28" s="10">
+        <v>2.22E-8</v>
+      </c>
+      <c r="P28" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999999260000005</v>
-      </c>
-      <c r="O28" s="10">
-        <f t="shared" si="16"/>
-        <v>2.22E-8</v>
-      </c>
-      <c r="P28" s="10">
-        <f t="shared" si="17"/>
         <v>2.22E-8</v>
       </c>
       <c r="Q28" s="9">
@@ -12640,27 +12640,27 @@
       </c>
       <c r="I29" s="26"/>
       <c r="J29" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M29" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="32" t="str">
+        <v>1</v>
+      </c>
+      <c r="N29" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M29" s="31">
+        <v>1</v>
+      </c>
+      <c r="O29" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O29" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="10">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q29" s="9">
@@ -12704,27 +12704,27 @@
       </c>
       <c r="I30" s="26"/>
       <c r="J30" s="10">
+        <f t="shared" si="11"/>
+        <v>7.0000000000000005E-8</v>
+      </c>
+      <c r="K30" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+II</v>
+      </c>
+      <c r="M30" s="31">
         <f t="shared" si="12"/>
-        <v>7.0000000000000005E-8</v>
-      </c>
-      <c r="K30" s="32" t="str">
+        <v>0.99999992999999998</v>
+      </c>
+      <c r="N30" s="10">
         <f t="shared" si="13"/>
-        <v>+II</v>
-      </c>
-      <c r="M30" s="31">
+        <v>0.99999992999999998</v>
+      </c>
+      <c r="O30" s="10">
         <f t="shared" si="14"/>
-        <v>0.99999992999999998</v>
-      </c>
-      <c r="N30" s="10">
+        <v>2.1E-7</v>
+      </c>
+      <c r="P30" s="10">
         <f t="shared" si="15"/>
-        <v>0.99999992999999998</v>
-      </c>
-      <c r="O30" s="10">
-        <f t="shared" si="16"/>
-        <v>2.1E-7</v>
-      </c>
-      <c r="P30" s="10">
-        <f t="shared" si="17"/>
         <v>2.1E-7</v>
       </c>
       <c r="Q30" s="9">
@@ -12766,27 +12766,27 @@
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>NR</v>
+      </c>
+      <c r="M31" s="31">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="34" t="str">
+        <v>1</v>
+      </c>
+      <c r="N31" s="10">
         <f t="shared" si="13"/>
-        <v>+III</v>
-      </c>
-      <c r="M31" s="31">
+        <v>1</v>
+      </c>
+      <c r="O31" s="10">
         <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="O31" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="10">
-        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q31" s="9">
@@ -12928,8 +12928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
   <dimension ref="B2:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13086,8 +13086,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K31" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" ref="K11:K31" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11:M31" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -13213,7 +13213,7 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" si="2"/>
@@ -13339,7 +13339,7 @@
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M15" s="31">
         <f t="shared" si="2"/>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="2"/>
@@ -13591,7 +13591,7 @@
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="2"/>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M21" s="31">
         <f t="shared" si="2"/>
@@ -13843,7 +13843,7 @@
       </c>
       <c r="K23" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M23" s="31">
         <f t="shared" si="2"/>
@@ -13969,7 +13969,7 @@
       </c>
       <c r="K25" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M25" s="31">
         <f t="shared" si="2"/>
@@ -14095,7 +14095,7 @@
       </c>
       <c r="K27" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M27" s="31">
         <f t="shared" si="2"/>
@@ -14221,7 +14221,7 @@
       </c>
       <c r="K29" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M29" s="31">
         <f t="shared" si="2"/>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="K31" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M31" s="31">
         <f t="shared" si="2"/>
@@ -14504,8 +14504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
   <dimension ref="B2:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14662,8 +14662,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K31" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>+III</v>
+        <f t="shared" ref="K11:K31" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11:M31" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -14789,7 +14789,7 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" si="2"/>
@@ -14915,7 +14915,7 @@
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M15" s="31">
         <f t="shared" si="2"/>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="2"/>
@@ -15167,7 +15167,7 @@
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="2"/>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M21" s="31">
         <f t="shared" si="2"/>
@@ -15419,7 +15419,7 @@
       </c>
       <c r="K23" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M23" s="31">
         <f t="shared" si="2"/>
@@ -15545,7 +15545,7 @@
       </c>
       <c r="K25" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M25" s="31">
         <f t="shared" si="2"/>
@@ -15671,7 +15671,7 @@
       </c>
       <c r="K27" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M27" s="31">
         <f t="shared" si="2"/>
@@ -15797,7 +15797,7 @@
       </c>
       <c r="K29" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M29" s="31">
         <f t="shared" si="2"/>
@@ -15923,7 +15923,7 @@
       </c>
       <c r="K31" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="M31" s="33">
         <f t="shared" si="2"/>
